--- a/teaching/traditional_assets/database/data/turkey/turkey_real_estate_operations_services.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_real_estate_operations_services.xlsx
@@ -644,10 +644,10 @@
         <v>0.1438644737544721</v>
       </c>
       <c r="X2">
-        <v>0.06698988175808183</v>
+        <v>0.06305746921793526</v>
       </c>
       <c r="Y2">
-        <v>0.07687459199639031</v>
+        <v>0.08080700453653689</v>
       </c>
       <c r="Z2">
         <v>0.02947319861091533</v>
@@ -656,10 +656,10 @@
         <v>0.004869936373822712</v>
       </c>
       <c r="AB2">
-        <v>0.06698980677315175</v>
+        <v>0.06305737215260587</v>
       </c>
       <c r="AC2">
-        <v>-0.06211987039932904</v>
+        <v>-0.05818743577878317</v>
       </c>
       <c r="AD2">
         <v>0.005</v>
@@ -769,10 +769,10 @@
         <v>-0.08360655737704918</v>
       </c>
       <c r="X3">
-        <v>0.06698910676772316</v>
+        <v>0.06305665535552886</v>
       </c>
       <c r="Y3">
-        <v>-0.1505956641447723</v>
+        <v>-0.146663212732578</v>
       </c>
       <c r="Z3">
         <v>0.04784489931769013</v>
@@ -781,10 +781,10 @@
         <v>0.01938758528873357</v>
       </c>
       <c r="AB3">
-        <v>0.06698910676772316</v>
+        <v>0.06305665535552886</v>
       </c>
       <c r="AC3">
-        <v>-0.04760152147898958</v>
+        <v>-0.04366907006679529</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0.3713355048859935</v>
       </c>
       <c r="X4">
-        <v>0.06699065674844051</v>
+        <v>0.06305828308034164</v>
       </c>
       <c r="Y4">
-        <v>0.304344848137553</v>
+        <v>0.3082772218056519</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>-0.009647712541088146</v>
       </c>
       <c r="AB4">
-        <v>0.06699050677858033</v>
+        <v>0.0630580889496829</v>
       </c>
       <c r="AC4">
-        <v>-0.07663821931966848</v>
+        <v>-0.07270580149077105</v>
       </c>
       <c r="AD4">
         <v>0.005</v>
@@ -1200,13 +1200,13 @@
         <v>84.5</v>
       </c>
       <c r="H2">
-        <v>78.3200672306542</v>
+        <v>78.33102840775319</v>
       </c>
       <c r="I2">
         <v>84.479</v>
       </c>
       <c r="J2">
-        <v>85.05906723065419</v>
+        <v>85.0700284077532</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1215,16 +1215,16 @@
         <v>6.76</v>
       </c>
       <c r="M2">
-        <v>0.0669891067677232</v>
+        <v>0.0630566553555289</v>
       </c>
       <c r="N2">
-        <v>0.0666400184886112</v>
+        <v>0.06268317822127149</v>
       </c>
       <c r="O2">
-        <v>0.066387683180236</v>
+        <v>0.061317683180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1233,14 +1233,14 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="S2">
-        <v>0.0669891067677232</v>
+        <v>0.0630566553555289</v>
       </c>
       <c r="T2">
-        <v>0.0704610635745774</v>
+        <v>0.0667027589361647</v>
       </c>
       <c r="U2">
         <v>0.5349059557928521</v>
@@ -1249,7 +1249,7 @@
         <v>0.5711865336640199</v>
       </c>
       <c r="W2">
-        <v>4.737794587120518</v>
+        <v>6.534114809725455</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1258,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>84.5</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08511241433363595</v>
+        <v>0.07861241433363596</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06698910676772316</v>
+        <v>0.06305665535552886</v>
       </c>
       <c r="C2">
         <v>84.5</v>
@@ -1513,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06698910676772316</v>
+        <v>0.06305665535552886</v>
       </c>
       <c r="T2">
         <v>0.5349059557928524</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1544,13 +1544,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.06689555073283418</v>
+        <v>0.06297175071374669</v>
       </c>
       <c r="C3">
-        <v>83.80968118374359</v>
+        <v>83.7886393752343</v>
       </c>
       <c r="D3">
-        <v>84.63368118374359</v>
+        <v>84.61263937523429</v>
       </c>
       <c r="E3">
         <v>0.845</v>
@@ -1577,37 +1577,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M3">
-        <v>0.0191815</v>
+        <v>0.013689</v>
       </c>
       <c r="N3">
-        <v>0.9128185000000001</v>
+        <v>0.9183110000000001</v>
       </c>
       <c r="O3">
-        <v>0.20082007</v>
+        <v>0.20202842</v>
       </c>
       <c r="P3">
-        <v>0.7119984300000001</v>
+        <v>0.7162825800000001</v>
       </c>
       <c r="Q3">
-        <v>0.7119984300000001</v>
+        <v>0.7162825800000001</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.06739241488165068</v>
+        <v>0.06348019264014818</v>
       </c>
       <c r="T3">
         <v>0.5391203663536446</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>48.58848369522718</v>
+        <v>68.08386295565785</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1626,13 +1626,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.06680199469794518</v>
+        <v>0.06288684607196451</v>
       </c>
       <c r="C4">
-        <v>83.11992984953608</v>
+        <v>83.07770223511507</v>
       </c>
       <c r="D4">
-        <v>84.78892984953607</v>
+        <v>84.74670223511507</v>
       </c>
       <c r="E4">
         <v>1.69</v>
@@ -1659,37 +1659,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M4">
-        <v>0.038363</v>
+        <v>0.027378</v>
       </c>
       <c r="N4">
-        <v>0.893637</v>
+        <v>0.904622</v>
       </c>
       <c r="O4">
-        <v>0.19660014</v>
+        <v>0.19901684</v>
       </c>
       <c r="P4">
-        <v>0.69703686</v>
+        <v>0.7056051600000001</v>
       </c>
       <c r="Q4">
-        <v>0.69703686</v>
+        <v>0.7056051600000001</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.06780395377341344</v>
+        <v>0.06391237354282094</v>
       </c>
       <c r="T4">
         <v>0.5434207852932283</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>24.29424184761358</v>
+        <v>34.04193147782892</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1708,13 +1708,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.0667084386630562</v>
+        <v>0.06280194143018238</v>
       </c>
       <c r="C5">
-        <v>82.43074912601604</v>
+        <v>82.36719059578289</v>
       </c>
       <c r="D5">
-        <v>84.94474912601603</v>
+        <v>84.88119059578288</v>
       </c>
       <c r="E5">
         <v>2.535</v>
@@ -1741,37 +1741,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M5">
-        <v>0.0575445</v>
+        <v>0.04106699999999999</v>
       </c>
       <c r="N5">
-        <v>0.8744555000000001</v>
+        <v>0.8909330000000001</v>
       </c>
       <c r="O5">
-        <v>0.19238021</v>
+        <v>0.19600526</v>
       </c>
       <c r="P5">
-        <v>0.68207529</v>
+        <v>0.69492774</v>
       </c>
       <c r="Q5">
-        <v>0.68207529</v>
+        <v>0.69492774</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.06822397800315072</v>
+        <v>0.06435346539194059</v>
       </c>
       <c r="T5">
         <v>0.5478098726645563</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>16.19616123174239</v>
+        <v>22.69462098521928</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1790,13 +1790,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.06666480262816719</v>
+        <v>0.06271703678840021</v>
       </c>
       <c r="C6">
-        <v>81.658621757875</v>
+        <v>81.65710648619678</v>
       </c>
       <c r="D6">
-        <v>85.01762175787499</v>
+        <v>85.01610648619678</v>
       </c>
       <c r="E6">
         <v>3.38</v>
@@ -1823,45 +1823,45 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M6">
-        <v>0.082134</v>
+        <v>0.05475599999999999</v>
       </c>
       <c r="N6">
-        <v>0.849866</v>
+        <v>0.877244</v>
       </c>
       <c r="O6">
-        <v>0.18697052</v>
+        <v>0.19299368</v>
       </c>
       <c r="P6">
-        <v>0.66289548</v>
+        <v>0.6842503200000001</v>
       </c>
       <c r="Q6">
-        <v>0.66289548</v>
+        <v>0.6842503200000001</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.06865275273767417</v>
+        <v>0.06480374665458355</v>
       </c>
       <c r="T6">
         <v>0.5522903993561201</v>
       </c>
       <c r="U6">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y6">
-        <v>11.34731049260964</v>
+        <v>17.02096573891446</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.06666952659327822</v>
+        <v>0.06269453214661805</v>
       </c>
       <c r="C7">
-        <v>80.80572665237858</v>
+        <v>80.84793893842114</v>
       </c>
       <c r="D7">
-        <v>85.00972665237857</v>
+        <v>85.05193893842113</v>
       </c>
       <c r="E7">
         <v>4.225000000000001</v>
@@ -1905,45 +1905,45 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M7">
-        <v>0.1119625</v>
+        <v>0.07520500000000001</v>
       </c>
       <c r="N7">
-        <v>0.8200375</v>
+        <v>0.8567950000000001</v>
       </c>
       <c r="O7">
-        <v>0.18040825</v>
+        <v>0.1884949</v>
       </c>
       <c r="P7">
-        <v>0.63962925</v>
+        <v>0.6683001000000001</v>
       </c>
       <c r="Q7">
-        <v>0.63962925</v>
+        <v>0.6683001000000001</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.06909055430871391</v>
+        <v>0.06526350752275584</v>
       </c>
       <c r="T7">
         <v>0.5568652529254011</v>
       </c>
       <c r="U7">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y7">
-        <v>8.324215697220049</v>
+        <v>12.39279303237817</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1954,13 +1954,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.06665709055838921</v>
+        <v>0.06272506750483588</v>
       </c>
       <c r="C8">
-        <v>79.9815139981537</v>
+        <v>79.95432708739503</v>
       </c>
       <c r="D8">
-        <v>85.03051399815369</v>
+        <v>85.00332708739502</v>
       </c>
       <c r="E8">
         <v>5.069999999999999</v>
@@ -1987,45 +1987,45 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M8">
-        <v>0.139932</v>
+        <v>0.1014</v>
       </c>
       <c r="N8">
-        <v>0.7920680000000001</v>
+        <v>0.8306000000000001</v>
       </c>
       <c r="O8">
-        <v>0.17425496</v>
+        <v>0.182732</v>
       </c>
       <c r="P8">
-        <v>0.6178130400000001</v>
+        <v>0.6478680000000001</v>
       </c>
       <c r="Q8">
-        <v>0.6178130400000001</v>
+        <v>0.6478680000000001</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.06953767080679704</v>
+        <v>0.06573305053705944</v>
       </c>
       <c r="T8">
         <v>0.5615374438046667</v>
       </c>
       <c r="U8">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y8">
-        <v>6.660377897836094</v>
+        <v>9.19132149901381</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2036,13 +2036,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.06668365452350024</v>
+        <v>0.06272986286305371</v>
       </c>
       <c r="C9">
-        <v>79.09212356219992</v>
+        <v>79.10169799420163</v>
       </c>
       <c r="D9">
-        <v>84.98612356219992</v>
+        <v>84.99569799420163</v>
       </c>
       <c r="E9">
         <v>5.915000000000001</v>
@@ -2069,45 +2069,45 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M9">
-        <v>0.1721265</v>
+        <v>0.1248065</v>
       </c>
       <c r="N9">
-        <v>0.7598735</v>
+        <v>0.8071935</v>
       </c>
       <c r="O9">
-        <v>0.16717217</v>
+        <v>0.17758257</v>
       </c>
       <c r="P9">
-        <v>0.5927013299999999</v>
+        <v>0.62961093</v>
       </c>
       <c r="Q9">
-        <v>0.5927013299999999</v>
+        <v>0.62961093</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.06999440271344112</v>
+        <v>0.0662126912505954</v>
       </c>
       <c r="T9">
         <v>0.5663101119071425</v>
       </c>
       <c r="U9">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y9">
-        <v>5.414622385280592</v>
+        <v>7.467559782543375</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2118,13 +2118,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.06664001848861124</v>
+        <v>0.06268317822127153</v>
       </c>
       <c r="C10">
-        <v>78.32006723065416</v>
+        <v>78.33102840775321</v>
       </c>
       <c r="D10">
-        <v>85.05906723065416</v>
+        <v>85.07002840775321</v>
       </c>
       <c r="E10">
         <v>6.76</v>
@@ -2151,45 +2151,45 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M10">
-        <v>0.196716</v>
+        <v>0.142636</v>
       </c>
       <c r="N10">
-        <v>0.735284</v>
+        <v>0.7893640000000001</v>
       </c>
       <c r="O10">
-        <v>0.16176248</v>
+        <v>0.17366008</v>
       </c>
       <c r="P10">
-        <v>0.57352152</v>
+        <v>0.6157039200000001</v>
       </c>
       <c r="Q10">
-        <v>0.57352152</v>
+        <v>0.6157039200000001</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.07046106357457743</v>
+        <v>0.06670275893616472</v>
       </c>
       <c r="T10">
         <v>0.5711865336640197</v>
       </c>
       <c r="U10">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y10">
-        <v>4.737794587120518</v>
+        <v>6.534114809725455</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2200,13 +2200,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.06983260245372225</v>
+        <v>0.06274179357948939</v>
       </c>
       <c r="C11">
-        <v>72.44924574888361</v>
+        <v>77.39272296542545</v>
       </c>
       <c r="D11">
-        <v>80.03324574888362</v>
+        <v>84.97672296542545</v>
       </c>
       <c r="E11">
         <v>7.605</v>
@@ -2233,45 +2233,45 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M11">
-        <v>0.571896</v>
+        <v>0.171873</v>
       </c>
       <c r="N11">
-        <v>0.3601040000000001</v>
+        <v>0.7601270000000001</v>
       </c>
       <c r="O11">
-        <v>0.07922288000000002</v>
+        <v>0.16722794</v>
       </c>
       <c r="P11">
-        <v>0.2808811200000001</v>
+        <v>0.5928990600000001</v>
       </c>
       <c r="Q11">
-        <v>0.2808811200000001</v>
+        <v>0.5928990600000001</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.07093798071837609</v>
+        <v>0.06720359734009823</v>
       </c>
       <c r="T11">
         <v>0.5761701295254439</v>
       </c>
       <c r="U11">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y11">
-        <v>1.629666932449257</v>
+        <v>5.422608553990448</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.07345717952044183</v>
+        <v>0.06270680893770722</v>
       </c>
       <c r="C12">
-        <v>66.57301339361921</v>
+        <v>76.60338778180186</v>
       </c>
       <c r="D12">
-        <v>75.00201339361921</v>
+        <v>85.03238778180186</v>
       </c>
       <c r="E12">
         <v>8.450000000000001</v>
@@ -2315,45 +2315,45 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M12">
-        <v>0.975975</v>
+        <v>0.19097</v>
       </c>
       <c r="N12">
-        <v>-0.04397499999999999</v>
+        <v>0.7410300000000001</v>
       </c>
       <c r="O12">
-        <v>-0.009674499999999997</v>
+        <v>0.1630266</v>
       </c>
       <c r="P12">
-        <v>-0.03430049999999999</v>
+        <v>0.5780034000000001</v>
       </c>
       <c r="Q12">
-        <v>-0.03430049999999999</v>
+        <v>0.5780034000000001</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.0714818759957572</v>
+        <v>0.06771556548634136</v>
       </c>
       <c r="T12">
-        <v>0.5818536204392217</v>
+        <v>0.5812644719615663</v>
       </c>
       <c r="U12">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V12">
-        <v>0.210087348548887</v>
+        <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.09123491124260355</v>
+        <v>0.017628</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y12">
-        <v>0.9549424934040319</v>
+        <v>4.880347698591402</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2364,13 +2364,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.07445417952044182</v>
+        <v>0.07040044004538308</v>
       </c>
       <c r="C13">
-        <v>64.4531339568115</v>
+        <v>65.0512992025362</v>
       </c>
       <c r="D13">
-        <v>73.7271339568115</v>
+        <v>74.3252992025362</v>
       </c>
       <c r="E13">
         <v>9.295</v>
@@ -2397,37 +2397,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M13">
-        <v>1.0735725</v>
+        <v>1.013155</v>
       </c>
       <c r="N13">
-        <v>-0.1415724999999998</v>
+        <v>-0.08115499999999998</v>
       </c>
       <c r="O13">
-        <v>-0.03114594999999995</v>
+        <v>-0.01785409999999999</v>
       </c>
       <c r="P13">
-        <v>-0.1104265499999998</v>
+        <v>-0.06330089999999998</v>
       </c>
       <c r="Q13">
-        <v>-0.1104265499999998</v>
+        <v>-0.06330089999999998</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.0721075150518893</v>
+        <v>0.06835612238328397</v>
       </c>
       <c r="T13">
-        <v>0.5883913015677522</v>
+        <v>0.5876383376147156</v>
       </c>
       <c r="U13">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V13">
-        <v>0.1909884986808064</v>
+        <v>0.2023777210792031</v>
       </c>
       <c r="W13">
-        <v>0.09344082840236685</v>
+        <v>0.08694082840236687</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>0.8681295394582109</v>
+        <v>0.9198987321781958</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.07942389835610715</v>
+        <v>0.07139744004538308</v>
       </c>
       <c r="C14">
-        <v>57.84924247433736</v>
+        <v>63.01297588275408</v>
       </c>
       <c r="D14">
-        <v>67.96824247433736</v>
+        <v>73.13197588275408</v>
       </c>
       <c r="E14">
         <v>10.14</v>
@@ -2479,45 +2479,45 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M14">
-        <v>1.487538</v>
+        <v>1.10526</v>
       </c>
       <c r="N14">
-        <v>-0.5555379999999998</v>
+        <v>-0.1732599999999999</v>
       </c>
       <c r="O14">
-        <v>-0.1222183599999999</v>
+        <v>-0.03811719999999997</v>
       </c>
       <c r="P14">
-        <v>-0.4333196399999998</v>
+        <v>-0.1351427999999999</v>
       </c>
       <c r="Q14">
-        <v>-0.4333196399999998</v>
+        <v>-0.1351427999999999</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.07300728094528044</v>
+        <v>0.069027214683094</v>
       </c>
       <c r="T14">
-        <v>0.5977934999178448</v>
+        <v>0.594316045996701</v>
       </c>
       <c r="U14">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V14">
-        <v>0.1378384955543993</v>
+        <v>0.1855129109892695</v>
       </c>
       <c r="W14">
-        <v>0.1264790927021696</v>
+        <v>0.08877909270216963</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y14">
-        <v>0.6265386161563604</v>
+        <v>0.8432405044966796</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.08073289835610714</v>
+        <v>0.07671675417343923</v>
       </c>
       <c r="C15">
-        <v>55.63405214476093</v>
+        <v>56.39771955262869</v>
       </c>
       <c r="D15">
-        <v>66.59805214476093</v>
+        <v>67.36171955262868</v>
       </c>
       <c r="E15">
         <v>10.985</v>
@@ -2561,37 +2561,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M15">
-        <v>1.6114995</v>
+        <v>1.540097</v>
       </c>
       <c r="N15">
-        <v>-0.6794995</v>
+        <v>-0.608097</v>
       </c>
       <c r="O15">
-        <v>-0.14948989</v>
+        <v>-0.13378134</v>
       </c>
       <c r="P15">
-        <v>-0.53000961</v>
+        <v>-0.47431566</v>
       </c>
       <c r="Q15">
-        <v>-0.53000961</v>
+        <v>-0.47431566</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.07366483589867447</v>
+        <v>0.07001984258526307</v>
       </c>
       <c r="T15">
-        <v>0.6046646895720729</v>
+        <v>0.604193196523362</v>
       </c>
       <c r="U15">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V15">
-        <v>0.127235534357907</v>
+        <v>0.133134471400178</v>
       </c>
       <c r="W15">
-        <v>0.128034547109695</v>
+        <v>0.121534547109695</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>0.5783433379904865</v>
+        <v>0.6051566881826275</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.08204189835610715</v>
+        <v>0.07802575417343922</v>
       </c>
       <c r="C16">
-        <v>53.47301422282757</v>
+        <v>54.26969993422094</v>
       </c>
       <c r="D16">
-        <v>65.28201422282757</v>
+        <v>66.07869993422094</v>
       </c>
       <c r="E16">
         <v>11.83</v>
@@ -2643,37 +2643,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M16">
-        <v>1.735461</v>
+        <v>1.658566</v>
       </c>
       <c r="N16">
-        <v>-0.8034610000000001</v>
+        <v>-0.7265660000000002</v>
       </c>
       <c r="O16">
-        <v>-0.17676142</v>
+        <v>-0.15984452</v>
       </c>
       <c r="P16">
-        <v>-0.62669958</v>
+        <v>-0.5667214800000001</v>
       </c>
       <c r="Q16">
-        <v>-0.62669958</v>
+        <v>-0.5667214800000001</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.07433768282772882</v>
+        <v>0.07072588726648706</v>
       </c>
       <c r="T16">
-        <v>0.6116956743345389</v>
+        <v>0.6112186988085173</v>
       </c>
       <c r="U16">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V16">
-        <v>0.1181472819037708</v>
+        <v>0.1236248663001653</v>
       </c>
       <c r="W16">
-        <v>0.1293677937447168</v>
+        <v>0.1228677937447168</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>0.5370330995625946</v>
+        <v>0.5619312104552969</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2692,13 +2692,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.08335089835610714</v>
+        <v>0.07933475417343923</v>
       </c>
       <c r="C17">
-        <v>51.36298061561789</v>
+        <v>52.18964143741108</v>
       </c>
       <c r="D17">
-        <v>64.01698061561788</v>
+        <v>64.84364143741108</v>
       </c>
       <c r="E17">
         <v>12.675</v>
@@ -2725,37 +2725,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M17">
-        <v>1.8594225</v>
+        <v>1.777035</v>
       </c>
       <c r="N17">
-        <v>-0.9274224999999997</v>
+        <v>-0.8450349999999996</v>
       </c>
       <c r="O17">
-        <v>-0.2040329499999999</v>
+        <v>-0.1859076999999999</v>
       </c>
       <c r="P17">
-        <v>-0.7233895499999998</v>
+        <v>-0.6591272999999997</v>
       </c>
       <c r="Q17">
-        <v>-0.7233895499999998</v>
+        <v>-0.6591272999999997</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.07502636144923151</v>
+        <v>0.07144854476373985</v>
       </c>
       <c r="T17">
-        <v>0.6188920940325923</v>
+        <v>0.618409507029794</v>
       </c>
       <c r="U17">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V17">
-        <v>0.1102707964435194</v>
+        <v>0.115383208546821</v>
       </c>
       <c r="W17">
-        <v>0.1305232741617357</v>
+        <v>0.1240232741617357</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>0.5012308929250884</v>
+        <v>0.5244691297582773</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.09181354414901263</v>
+        <v>0.08782407026122488</v>
       </c>
       <c r="C18">
-        <v>43.39092138234165</v>
+        <v>44.33433024730147</v>
       </c>
       <c r="D18">
-        <v>56.88992138234165</v>
+        <v>57.83333024730147</v>
       </c>
       <c r="E18">
         <v>13.52</v>
@@ -2807,37 +2807,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M18">
-        <v>2.571504</v>
+        <v>2.483624</v>
       </c>
       <c r="N18">
-        <v>-1.639504</v>
+        <v>-1.551624</v>
       </c>
       <c r="O18">
-        <v>-0.36069088</v>
+        <v>-0.34135728</v>
       </c>
       <c r="P18">
-        <v>-1.27881312</v>
+        <v>-1.21026672</v>
       </c>
       <c r="Q18">
-        <v>-1.27881312</v>
+        <v>-1.21026672</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.07596196788660985</v>
+        <v>0.07245068944876729</v>
       </c>
       <c r="T18">
-        <v>0.6286688119171747</v>
+        <v>0.6283813543674315</v>
       </c>
       <c r="U18">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V18">
-        <v>0.07973543887157088</v>
+        <v>0.08255677993126175</v>
       </c>
       <c r="W18">
-        <v>0.1750343195266272</v>
+        <v>0.1685343195266272</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>0.3624338130525949</v>
+        <v>0.3752580905966443</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2856,13 +2856,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.09355754414901263</v>
+        <v>0.08956807026122487</v>
       </c>
       <c r="C19">
-        <v>41.26995486389465</v>
+        <v>42.23277421421072</v>
       </c>
       <c r="D19">
-        <v>55.61395486389466</v>
+        <v>56.57677421421072</v>
       </c>
       <c r="E19">
         <v>14.365</v>
@@ -2889,37 +2889,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M19">
-        <v>2.732223</v>
+        <v>2.6388505</v>
       </c>
       <c r="N19">
-        <v>-1.800223</v>
+        <v>-1.7068505</v>
       </c>
       <c r="O19">
-        <v>-0.3960490600000001</v>
+        <v>-0.3755071100000001</v>
       </c>
       <c r="P19">
-        <v>-1.40417394</v>
+        <v>-1.33134339</v>
       </c>
       <c r="Q19">
-        <v>-1.40417394</v>
+        <v>-1.33134339</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.07668681087319551</v>
+        <v>0.07321154112887292</v>
       </c>
       <c r="T19">
-        <v>0.6362431349523214</v>
+        <v>0.6359522140586054</v>
       </c>
       <c r="U19">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V19">
-        <v>0.07504511893794906</v>
+        <v>0.07770049875883457</v>
       </c>
       <c r="W19">
-        <v>0.1759264183780021</v>
+        <v>0.1694264183780021</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>0.3411141769906775</v>
+        <v>0.3531840852674298</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2938,13 +2938,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.09530154414901264</v>
+        <v>0.09131207026122488</v>
       </c>
       <c r="C20">
-        <v>39.20496928599393</v>
+        <v>40.18465991755536</v>
       </c>
       <c r="D20">
-        <v>54.39396928599393</v>
+        <v>55.37365991755536</v>
       </c>
       <c r="E20">
         <v>15.21</v>
@@ -2971,37 +2971,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M20">
-        <v>2.892942</v>
+        <v>2.794077</v>
       </c>
       <c r="N20">
-        <v>-1.960942</v>
+        <v>-1.862077</v>
       </c>
       <c r="O20">
-        <v>-0.43140724</v>
+        <v>-0.40965694</v>
       </c>
       <c r="P20">
-        <v>-1.52953476</v>
+        <v>-1.45242006</v>
       </c>
       <c r="Q20">
-        <v>-1.52953476</v>
+        <v>-1.45242006</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.07742933295701496</v>
+        <v>0.0739909501670299</v>
       </c>
       <c r="T20">
-        <v>0.6440021975736911</v>
+        <v>0.6437077288641981</v>
       </c>
       <c r="U20">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V20">
-        <v>0.07087594566361856</v>
+        <v>0.07338380438334378</v>
       </c>
       <c r="W20">
-        <v>0.1767193951347798</v>
+        <v>0.1702193951347797</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>0.3221633893800844</v>
+        <v>0.3335627471970172</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3020,13 +3020,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.09704554414901262</v>
+        <v>0.09305607026122488</v>
       </c>
       <c r="C21">
-        <v>37.19235962286233</v>
+        <v>38.18664900628623</v>
       </c>
       <c r="D21">
-        <v>53.22635962286233</v>
+        <v>54.22064900628623</v>
       </c>
       <c r="E21">
         <v>16.055</v>
@@ -3053,37 +3053,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M21">
-        <v>3.053661</v>
+        <v>2.9493035</v>
       </c>
       <c r="N21">
-        <v>-2.121661</v>
+        <v>-2.0173035</v>
       </c>
       <c r="O21">
-        <v>-0.46676542</v>
+        <v>-0.44380677</v>
       </c>
       <c r="P21">
-        <v>-1.65489558</v>
+        <v>-1.57349673</v>
       </c>
       <c r="Q21">
-        <v>-1.65489558</v>
+        <v>-1.57349673</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.07819018891944723</v>
+        <v>0.07478960387279571</v>
       </c>
       <c r="T21">
-        <v>0.6519528419881812</v>
+        <v>0.6516547378625216</v>
       </c>
       <c r="U21">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V21">
-        <v>0.06714563273395444</v>
+        <v>0.06952149888948357</v>
       </c>
       <c r="W21">
-        <v>0.1774289006540019</v>
+        <v>0.1709289006540019</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>0.3052074215179746</v>
+        <v>0.3160068131340162</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3102,13 +3102,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.09878954414901263</v>
+        <v>0.09480007026122489</v>
       </c>
       <c r="C22">
-        <v>35.22882388279855</v>
+        <v>36.23567550733991</v>
       </c>
       <c r="D22">
-        <v>52.10782388279855</v>
+        <v>53.1146755073399</v>
       </c>
       <c r="E22">
         <v>16.9</v>
@@ -3135,37 +3135,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M22">
-        <v>3.214380000000001</v>
+        <v>3.10453</v>
       </c>
       <c r="N22">
-        <v>-2.282380000000001</v>
+        <v>-2.172530000000001</v>
       </c>
       <c r="O22">
-        <v>-0.5021236000000001</v>
+        <v>-0.4779566000000001</v>
       </c>
       <c r="P22">
-        <v>-1.780256400000001</v>
+        <v>-1.6945734</v>
       </c>
       <c r="Q22">
-        <v>-1.780256400000001</v>
+        <v>-1.6945734</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.07897006628094033</v>
+        <v>0.07560822392120566</v>
       </c>
       <c r="T22">
-        <v>0.6601022525130334</v>
+        <v>0.6598004220858031</v>
       </c>
       <c r="U22">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V22">
-        <v>0.0637883510972567</v>
+        <v>0.06604542394500938</v>
       </c>
       <c r="W22">
-        <v>0.1780674556213018</v>
+        <v>0.1715674556213018</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>0.2899470504420758</v>
+        <v>0.3002064724773154</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1005335441490126</v>
+        <v>0.09654407026122488</v>
       </c>
       <c r="C23">
-        <v>33.31133192268666</v>
+        <v>34.328918601599</v>
       </c>
       <c r="D23">
-        <v>51.03533192268666</v>
+        <v>52.052918601599</v>
       </c>
       <c r="E23">
         <v>17.745</v>
@@ -3217,37 +3217,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M23">
-        <v>3.375099000000001</v>
+        <v>3.2597565</v>
       </c>
       <c r="N23">
-        <v>-2.443099000000001</v>
+        <v>-2.3277565</v>
       </c>
       <c r="O23">
-        <v>-0.5374817800000001</v>
+        <v>-0.5121064300000001</v>
       </c>
       <c r="P23">
-        <v>-1.90561722</v>
+        <v>-1.81565007</v>
       </c>
       <c r="Q23">
-        <v>-1.90561722</v>
+        <v>-1.81565007</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.07976968737310414</v>
+        <v>0.0764475685278032</v>
       </c>
       <c r="T23">
-        <v>0.6684579772283883</v>
+        <v>0.6681523261628386</v>
       </c>
       <c r="U23">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V23">
-        <v>0.06075081056881591</v>
+        <v>0.06290040375715179</v>
       </c>
       <c r="W23">
-        <v>0.1786451958298112</v>
+        <v>0.1721451958298112</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>0.2761400480400722</v>
+        <v>0.2859109261688718</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1022775441490126</v>
+        <v>0.09828807026122488</v>
       </c>
       <c r="C24">
-        <v>31.43709803602822</v>
+        <v>32.4637786010944</v>
       </c>
       <c r="D24">
-        <v>50.00609803602822</v>
+        <v>51.03277860109441</v>
       </c>
       <c r="E24">
         <v>18.59</v>
@@ -3299,37 +3299,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M24">
-        <v>3.535818</v>
+        <v>3.414983</v>
       </c>
       <c r="N24">
-        <v>-2.603818</v>
+        <v>-2.482983</v>
       </c>
       <c r="O24">
-        <v>-0.57283996</v>
+        <v>-0.5462562599999999</v>
       </c>
       <c r="P24">
-        <v>-2.03097804</v>
+        <v>-1.93672674</v>
       </c>
       <c r="Q24">
-        <v>-2.03097804</v>
+        <v>-1.93672674</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.08058981157019521</v>
+        <v>0.07730843479098015</v>
       </c>
       <c r="T24">
-        <v>0.6770279512954189</v>
+        <v>0.6767183816264647</v>
       </c>
       <c r="U24">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V24">
-        <v>0.05798941008841519</v>
+        <v>0.06004129449546309</v>
       </c>
       <c r="W24">
-        <v>0.1791704142011834</v>
+        <v>0.1726704142011834</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>0.2635882276746144</v>
+        <v>0.2729149749793777</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3348,13 +3348,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1040215441490126</v>
+        <v>0.1000320702612249</v>
       </c>
       <c r="C25">
-        <v>29.60355679232103</v>
+        <v>30.63785569672258</v>
       </c>
       <c r="D25">
-        <v>49.01755679232103</v>
+        <v>50.05185569672258</v>
       </c>
       <c r="E25">
         <v>19.435</v>
@@ -3381,37 +3381,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M25">
-        <v>3.696537000000001</v>
+        <v>3.5702095</v>
       </c>
       <c r="N25">
-        <v>-2.764537000000001</v>
+        <v>-2.6382095</v>
       </c>
       <c r="O25">
-        <v>-0.6081981400000002</v>
+        <v>-0.5804060900000001</v>
       </c>
       <c r="P25">
-        <v>-2.15633886</v>
+        <v>-2.05780341</v>
       </c>
       <c r="Q25">
-        <v>-2.15633886</v>
+        <v>-2.05780341</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.08143123769448346</v>
+        <v>0.07819166121683704</v>
       </c>
       <c r="T25">
-        <v>0.6858205220914634</v>
+        <v>0.685506932037198</v>
       </c>
       <c r="U25">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V25">
-        <v>0.05546813138891887</v>
+        <v>0.05743080343044295</v>
       </c>
       <c r="W25">
-        <v>0.1796499614098276</v>
+        <v>0.1731499614098276</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>0.2521278699496312</v>
+        <v>0.2610491065020134</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1057655441490126</v>
+        <v>0.1017760702612249</v>
       </c>
       <c r="C26">
-        <v>27.80834168658884</v>
+        <v>28.84893111073502</v>
       </c>
       <c r="D26">
-        <v>48.06734168658884</v>
+        <v>49.10793111073502</v>
       </c>
       <c r="E26">
         <v>20.28</v>
@@ -3463,37 +3463,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M26">
-        <v>3.857256</v>
+        <v>3.725436</v>
       </c>
       <c r="N26">
-        <v>-2.925256</v>
+        <v>-2.793436</v>
       </c>
       <c r="O26">
-        <v>-0.64355632</v>
+        <v>-0.6145559199999999</v>
       </c>
       <c r="P26">
-        <v>-2.28169968</v>
+        <v>-2.17888008</v>
       </c>
       <c r="Q26">
-        <v>-2.28169968</v>
+        <v>-2.17888008</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.08229480661151614</v>
+        <v>0.07909813044337437</v>
       </c>
       <c r="T26">
-        <v>0.6948444763295089</v>
+        <v>0.694526760090319</v>
       </c>
       <c r="U26">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V26">
-        <v>0.05315695924771393</v>
+        <v>0.05503785328750783</v>
       </c>
       <c r="W26">
-        <v>0.1800895463510848</v>
+        <v>0.1735895463510848</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>0.2416225420350633</v>
+        <v>0.2501720603977629</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3512,13 +3512,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1075095441490126</v>
+        <v>0.1035200702612249</v>
       </c>
       <c r="C27">
-        <v>26.04926622498584</v>
+        <v>27.09495034241597</v>
       </c>
       <c r="D27">
-        <v>47.15326622498584</v>
+        <v>48.19895034241597</v>
       </c>
       <c r="E27">
         <v>21.125</v>
@@ -3545,37 +3545,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M27">
-        <v>4.017975</v>
+        <v>3.8806625</v>
       </c>
       <c r="N27">
-        <v>-3.085975</v>
+        <v>-2.9486625</v>
       </c>
       <c r="O27">
-        <v>-0.6789145</v>
+        <v>-0.6487057500000001</v>
       </c>
       <c r="P27">
-        <v>-2.4070605</v>
+        <v>-2.29995675</v>
       </c>
       <c r="Q27">
-        <v>-2.4070605</v>
+        <v>-2.29995675</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.083181404033003</v>
+        <v>0.08002877218261938</v>
       </c>
       <c r="T27">
-        <v>0.7041090693472356</v>
+        <v>0.7037871168915234</v>
       </c>
       <c r="U27">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V27">
-        <v>0.05103068087780536</v>
+        <v>0.05283633915600752</v>
       </c>
       <c r="W27">
-        <v>0.1804939644970414</v>
+        <v>0.1739939644970414</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>0.2319576403536607</v>
+        <v>0.2401651779818523</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1092535441490126</v>
+        <v>0.1052640702612249</v>
       </c>
       <c r="C28">
-        <v>24.32430712824735</v>
+        <v>25.37400824066522</v>
       </c>
       <c r="D28">
-        <v>46.27330712824735</v>
+        <v>47.32300824066522</v>
       </c>
       <c r="E28">
         <v>21.97</v>
@@ -3627,37 +3627,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M28">
-        <v>4.178694000000001</v>
+        <v>4.035889</v>
       </c>
       <c r="N28">
-        <v>-3.246694000000001</v>
+        <v>-3.103889</v>
       </c>
       <c r="O28">
-        <v>-0.7142726800000002</v>
+        <v>-0.68285558</v>
       </c>
       <c r="P28">
-        <v>-2.532421320000001</v>
+        <v>-2.42103342</v>
       </c>
       <c r="Q28">
-        <v>-2.532421320000001</v>
+        <v>-2.42103342</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.08409196354696252</v>
+        <v>0.08098456640130343</v>
       </c>
       <c r="T28">
-        <v>0.7136240567708469</v>
+        <v>0.7132977536062738</v>
       </c>
       <c r="U28">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V28">
-        <v>0.04906796238250515</v>
+        <v>0.05080417226539184</v>
       </c>
       <c r="W28">
-        <v>0.1808672735548475</v>
+        <v>0.1743672735548475</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>0.2230361926477507</v>
+        <v>0.2309280557517811</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1109975441490126</v>
+        <v>0.1070080702612249</v>
       </c>
       <c r="C29">
-        <v>22.63158938139724</v>
+        <v>23.68433567522544</v>
       </c>
       <c r="D29">
-        <v>45.42558938139724</v>
+        <v>46.47833567522544</v>
       </c>
       <c r="E29">
         <v>22.815</v>
@@ -3709,37 +3709,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M29">
-        <v>4.339413</v>
+        <v>4.1911155</v>
       </c>
       <c r="N29">
-        <v>-3.407413</v>
+        <v>-3.2591155</v>
       </c>
       <c r="O29">
-        <v>-0.7496308600000001</v>
+        <v>-0.7170054100000001</v>
       </c>
       <c r="P29">
-        <v>-2.65778214</v>
+        <v>-2.54211009</v>
       </c>
       <c r="Q29">
-        <v>-2.65778214</v>
+        <v>-2.54211009</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.08502746989692092</v>
+        <v>0.08196654676296511</v>
       </c>
       <c r="T29">
-        <v>0.7233997287814065</v>
+        <v>0.7230689557104693</v>
       </c>
       <c r="U29">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V29">
-        <v>0.04725063044241237</v>
+        <v>0.0489225362555625</v>
       </c>
       <c r="W29">
-        <v>0.1812129300898532</v>
+        <v>0.1747129300898532</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>0.2147755929200562</v>
+        <v>0.2223751647980113</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3758,13 +3758,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1127415441490126</v>
+        <v>0.1087520702612249</v>
       </c>
       <c r="C30">
-        <v>20.96937289720982</v>
+        <v>22.02428761031656</v>
       </c>
       <c r="D30">
-        <v>44.60837289720982</v>
+        <v>45.66328761031657</v>
       </c>
       <c r="E30">
         <v>23.66</v>
@@ -3791,37 +3791,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M30">
-        <v>4.500132000000001</v>
+        <v>4.346342000000001</v>
       </c>
       <c r="N30">
-        <v>-3.568132000000001</v>
+        <v>-3.414342000000001</v>
       </c>
       <c r="O30">
-        <v>-0.7849890400000001</v>
+        <v>-0.7511552400000002</v>
       </c>
       <c r="P30">
-        <v>-2.783142960000001</v>
+        <v>-2.663186760000001</v>
       </c>
       <c r="Q30">
-        <v>-2.783142960000001</v>
+        <v>-2.663186760000001</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.08598896253437815</v>
+        <v>0.08297580435689518</v>
       </c>
       <c r="T30">
-        <v>0.7334469472367039</v>
+        <v>0.7331115800953368</v>
       </c>
       <c r="U30">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V30">
-        <v>0.04556310792661192</v>
+        <v>0.04717530281786384</v>
       </c>
       <c r="W30">
-        <v>0.1815338968723584</v>
+        <v>0.1750338968723584</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>0.2071050360300541</v>
+        <v>0.2144331946266538</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3840,13 +3840,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1144855441490126</v>
+        <v>0.1104960702612249</v>
       </c>
       <c r="C31">
-        <v>19.33604059379504</v>
+        <v>20.39233241149492</v>
       </c>
       <c r="D31">
-        <v>43.82004059379504</v>
+        <v>44.87633241149491</v>
       </c>
       <c r="E31">
         <v>24.505</v>
@@ -3873,37 +3873,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M31">
-        <v>4.660851</v>
+        <v>4.5015685</v>
       </c>
       <c r="N31">
-        <v>-3.728851</v>
+        <v>-3.5695685</v>
       </c>
       <c r="O31">
-        <v>-0.82034722</v>
+        <v>-0.78530507</v>
       </c>
       <c r="P31">
-        <v>-2.90850378</v>
+        <v>-2.78426343</v>
       </c>
       <c r="Q31">
-        <v>-2.90850378</v>
+        <v>-2.78426343</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.08697753947148207</v>
+        <v>0.08401349174220356</v>
       </c>
       <c r="T31">
-        <v>0.7437771859301785</v>
+        <v>0.7434370953079472</v>
       </c>
       <c r="U31">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V31">
-        <v>0.04399196627397015</v>
+        <v>0.04554856823793751</v>
       </c>
       <c r="W31">
-        <v>0.1818327280146909</v>
+        <v>0.1753327280146909</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>0.1999634830635006</v>
+        <v>0.2070389465360796</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3922,13 +3922,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1162295441490126</v>
+        <v>0.1122400702612249</v>
       </c>
       <c r="C32">
-        <v>17.73008771440938</v>
+        <v>18.78704223948474</v>
       </c>
       <c r="D32">
-        <v>43.05908771440938</v>
+        <v>44.11604223948473</v>
       </c>
       <c r="E32">
         <v>25.35</v>
@@ -3955,37 +3955,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M32">
-        <v>4.821569999999999</v>
+        <v>4.656795</v>
       </c>
       <c r="N32">
-        <v>-3.88957</v>
+        <v>-3.724795</v>
       </c>
       <c r="O32">
-        <v>-0.8557053999999999</v>
+        <v>-0.8194549</v>
       </c>
       <c r="P32">
-        <v>-3.033864599999999</v>
+        <v>-2.9053401</v>
       </c>
       <c r="Q32">
-        <v>-3.033864599999999</v>
+        <v>-2.9053401</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.0879943614639318</v>
+        <v>0.08508082733852075</v>
       </c>
       <c r="T32">
-        <v>0.7544025743006096</v>
+        <v>0.7540576252409179</v>
       </c>
       <c r="U32">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V32">
-        <v>0.04252556739817114</v>
+        <v>0.04403028263000627</v>
       </c>
       <c r="W32">
-        <v>0.1821116370808679</v>
+        <v>0.1756116370808679</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>0.1932980336280506</v>
+        <v>0.2001376483182102</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4004,13 +4004,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1179735441490126</v>
+        <v>0.1139840702612249</v>
       </c>
       <c r="C33">
-        <v>16.15011224106758</v>
+        <v>17.20708440422219</v>
       </c>
       <c r="D33">
-        <v>42.32411224106758</v>
+        <v>43.38108440422219</v>
       </c>
       <c r="E33">
         <v>26.195</v>
@@ -4037,37 +4037,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M33">
-        <v>4.982289000000001</v>
+        <v>4.8120215</v>
       </c>
       <c r="N33">
-        <v>-4.050289</v>
+        <v>-3.8800215</v>
       </c>
       <c r="O33">
-        <v>-0.8910635800000001</v>
+        <v>-0.85360473</v>
       </c>
       <c r="P33">
-        <v>-3.15922542</v>
+        <v>-3.02641677</v>
       </c>
       <c r="Q33">
-        <v>-3.15922542</v>
+        <v>-3.02641677</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.08904065655761198</v>
+        <v>0.08617910019849931</v>
       </c>
       <c r="T33">
-        <v>0.7653359449426476</v>
+        <v>0.764985996621221</v>
       </c>
       <c r="U33">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V33">
-        <v>0.04115377490145593</v>
+        <v>0.04260995093226413</v>
       </c>
       <c r="W33">
-        <v>0.1823725520137431</v>
+        <v>0.1758725520137431</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>0.1870626131884361</v>
+        <v>0.1936815951466551</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4086,13 +4086,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1197175441490126</v>
+        <v>0.1157280702612249</v>
       </c>
       <c r="C34">
-        <v>14.59480627345756</v>
+        <v>15.65121356896918</v>
       </c>
       <c r="D34">
-        <v>41.61380627345756</v>
+        <v>42.67021356896918</v>
       </c>
       <c r="E34">
         <v>27.04</v>
@@ -4119,37 +4119,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M34">
-        <v>5.143008</v>
+        <v>4.967248</v>
       </c>
       <c r="N34">
-        <v>-4.211008</v>
+        <v>-4.035247999999999</v>
       </c>
       <c r="O34">
-        <v>-0.9264217599999999</v>
+        <v>-0.8877545599999999</v>
       </c>
       <c r="P34">
-        <v>-3.28458624</v>
+        <v>-3.147493439999999</v>
       </c>
       <c r="Q34">
-        <v>-3.28458624</v>
+        <v>-3.147493439999999</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.09011772503640039</v>
+        <v>0.08730967520141841</v>
       </c>
       <c r="T34">
-        <v>0.7765908853094511</v>
+        <v>0.7762357906891801</v>
       </c>
       <c r="U34">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V34">
-        <v>0.03986771943578544</v>
+        <v>0.04127838996563087</v>
       </c>
       <c r="W34">
-        <v>0.1826171597633136</v>
+        <v>0.1761171597633136</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>0.1812169065262975</v>
+        <v>0.1876290452983223</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4168,13 +4168,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1214615441490126</v>
+        <v>0.1174720702612249</v>
       </c>
       <c r="C35">
-        <v>13.06294826162915</v>
+        <v>14.11826470856026</v>
       </c>
       <c r="D35">
-        <v>40.92694826162915</v>
+        <v>41.98226470856027</v>
       </c>
       <c r="E35">
         <v>27.885</v>
@@ -4201,37 +4201,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M35">
-        <v>5.303727</v>
+        <v>5.1224745</v>
       </c>
       <c r="N35">
-        <v>-4.371727</v>
+        <v>-4.1904745</v>
       </c>
       <c r="O35">
-        <v>-0.96177994</v>
+        <v>-0.9219043899999999</v>
       </c>
       <c r="P35">
-        <v>-3.40994706</v>
+        <v>-3.26857011</v>
       </c>
       <c r="Q35">
-        <v>-3.40994706</v>
+        <v>-3.26857011</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.09122694481306309</v>
+        <v>0.08847399871188735</v>
       </c>
       <c r="T35">
-        <v>0.7881817940454131</v>
+        <v>0.7878213995054366</v>
       </c>
       <c r="U35">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V35">
-        <v>0.03865960672561012</v>
+        <v>0.04002752966364206</v>
       </c>
       <c r="W35">
-        <v>0.182846942800789</v>
+        <v>0.1763469428007889</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>0.1757254851164097</v>
+        <v>0.1819433166529185</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4250,13 +4250,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1232055441490126</v>
+        <v>0.1192160702612249</v>
       </c>
       <c r="C36">
-        <v>11.55339599541415</v>
+        <v>12.607146738024</v>
       </c>
       <c r="D36">
-        <v>40.26239599541415</v>
+        <v>41.316146738024</v>
       </c>
       <c r="E36">
         <v>28.73</v>
@@ -4283,37 +4283,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M36">
-        <v>5.464446000000001</v>
+        <v>5.277701</v>
       </c>
       <c r="N36">
-        <v>-4.532446</v>
+        <v>-4.345701</v>
       </c>
       <c r="O36">
-        <v>-0.99713812</v>
+        <v>-0.9560542200000001</v>
       </c>
       <c r="P36">
-        <v>-3.53530788</v>
+        <v>-3.38964678</v>
       </c>
       <c r="Q36">
-        <v>-3.53530788</v>
+        <v>-3.38964678</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.09236977731023072</v>
+        <v>0.08967360475297655</v>
       </c>
       <c r="T36">
-        <v>0.8001239424400406</v>
+        <v>0.799758087376731</v>
       </c>
       <c r="U36">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V36">
-        <v>0.03752255946897453</v>
+        <v>0.03885024937941729</v>
       </c>
       <c r="W36">
-        <v>0.183063209189001</v>
+        <v>0.176563209189001</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>0.1705570884953388</v>
+        <v>0.176592042633715</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4332,13 +4332,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1249495441490126</v>
+        <v>0.1209600702612249</v>
       </c>
       <c r="C37">
-        <v>10.06508026593992</v>
+        <v>11.11683673828512</v>
       </c>
       <c r="D37">
-        <v>39.61908026593992</v>
+        <v>40.67083673828512</v>
       </c>
       <c r="E37">
         <v>29.575</v>
@@ -4365,37 +4365,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M37">
-        <v>5.625165000000001</v>
+        <v>5.432927500000001</v>
       </c>
       <c r="N37">
-        <v>-4.693165</v>
+        <v>-4.5009275</v>
       </c>
       <c r="O37">
-        <v>-1.0324963</v>
+        <v>-0.9902040500000001</v>
       </c>
       <c r="P37">
-        <v>-3.6606687</v>
+        <v>-3.51072345</v>
       </c>
       <c r="Q37">
-        <v>-3.6606687</v>
+        <v>-3.51072345</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.09354777388423427</v>
+        <v>0.0909101217491762</v>
       </c>
       <c r="T37">
-        <v>0.8124335415545028</v>
+        <v>0.8120620579517578</v>
       </c>
       <c r="U37">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V37">
-        <v>0.03645048634128954</v>
+        <v>0.03774024225429107</v>
       </c>
       <c r="W37">
-        <v>0.1832671174978867</v>
+        <v>0.1767671174978867</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.1656840288240434</v>
+        <v>0.1715465557013232</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4414,13 +4414,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1266935441490126</v>
+        <v>0.1227040702612249</v>
       </c>
       <c r="C38">
-        <v>8.596999125247439</v>
+        <v>9.646374714671833</v>
       </c>
       <c r="D38">
-        <v>38.99599912524744</v>
+        <v>40.04537471467183</v>
       </c>
       <c r="E38">
         <v>30.42</v>
@@ -4447,37 +4447,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M38">
-        <v>5.785884</v>
+        <v>5.588153999999999</v>
       </c>
       <c r="N38">
-        <v>-4.853884</v>
+        <v>-4.656153999999999</v>
       </c>
       <c r="O38">
-        <v>-1.06785448</v>
+        <v>-1.02435388</v>
       </c>
       <c r="P38">
-        <v>-3.78602952</v>
+        <v>-3.631800119999999</v>
       </c>
       <c r="Q38">
-        <v>-3.78602952</v>
+        <v>-3.631800119999999</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.09476258285117542</v>
+        <v>0.09218527990150707</v>
       </c>
       <c r="T38">
-        <v>0.8251278156412918</v>
+        <v>0.824750527607254</v>
       </c>
       <c r="U38">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V38">
-        <v>0.03543797283180928</v>
+        <v>0.03669190219167189</v>
       </c>
       <c r="W38">
-        <v>0.1834596975673899</v>
+        <v>0.1769596975673899</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.1610816946900422</v>
+        <v>0.1667813735985086</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1284375441490126</v>
+        <v>0.1244480702612249</v>
       </c>
       <c r="C39">
-        <v>7.148212679189449</v>
+        <v>8.194858831739964</v>
       </c>
       <c r="D39">
-        <v>38.39221267918945</v>
+        <v>39.43885883173996</v>
       </c>
       <c r="E39">
         <v>31.265</v>
@@ -4529,37 +4529,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M39">
-        <v>5.946603000000001</v>
+        <v>5.7433805</v>
       </c>
       <c r="N39">
-        <v>-5.014603</v>
+        <v>-4.811380499999999</v>
       </c>
       <c r="O39">
-        <v>-1.10321266</v>
+        <v>-1.05850371</v>
       </c>
       <c r="P39">
-        <v>-3.91139034</v>
+        <v>-3.752876789999999</v>
       </c>
       <c r="Q39">
-        <v>-3.91139034</v>
+        <v>-3.752876789999999</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.09601595718214645</v>
+        <v>0.09350091926502305</v>
       </c>
       <c r="T39">
-        <v>0.838225082556233</v>
+        <v>0.8378418058232421</v>
       </c>
       <c r="U39">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V39">
-        <v>0.03448018978230092</v>
+        <v>0.03570022915946454</v>
       </c>
       <c r="W39">
-        <v>0.1836418679034064</v>
+        <v>0.1771418679034064</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>0.1567281353740951</v>
+        <v>0.162273768906657</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4578,13 +4578,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1301815441490126</v>
+        <v>0.1261920702612249</v>
       </c>
       <c r="C40">
-        <v>5.717838356691423</v>
+        <v>6.761441074668468</v>
       </c>
       <c r="D40">
-        <v>37.80683835669142</v>
+        <v>38.85044107466847</v>
       </c>
       <c r="E40">
         <v>32.11</v>
@@ -4611,37 +4611,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M40">
-        <v>6.107322</v>
+        <v>5.898607</v>
       </c>
       <c r="N40">
-        <v>-5.175322</v>
+        <v>-4.966607</v>
       </c>
       <c r="O40">
-        <v>-1.13857084</v>
+        <v>-1.09265354</v>
       </c>
       <c r="P40">
-        <v>-4.03675116</v>
+        <v>-3.87395346</v>
       </c>
       <c r="Q40">
-        <v>-4.03675116</v>
+        <v>-3.87395346</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.09730976294314883</v>
+        <v>0.09485899860800728</v>
       </c>
       <c r="T40">
-        <v>0.8517448419523013</v>
+        <v>0.8513553833365201</v>
       </c>
       <c r="U40">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V40">
-        <v>0.03357281636697722</v>
+        <v>0.03476074944474179</v>
       </c>
       <c r="W40">
-        <v>0.1838144503270009</v>
+        <v>0.1773144503270009</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.1526037107589874</v>
+        <v>0.1580034065670082</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4660,13 +4660,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1319255441490126</v>
+        <v>0.1279360702612249</v>
       </c>
       <c r="C41">
-        <v>4.305046605296383</v>
+        <v>5.345323293330694</v>
       </c>
       <c r="D41">
-        <v>37.23904660529638</v>
+        <v>38.27932329333069</v>
       </c>
       <c r="E41">
         <v>32.955</v>
@@ -4693,37 +4693,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M41">
-        <v>6.268041</v>
+        <v>6.0538335</v>
       </c>
       <c r="N41">
-        <v>-5.336041</v>
+        <v>-5.121833499999999</v>
       </c>
       <c r="O41">
-        <v>-1.17392902</v>
+        <v>-1.12680337</v>
       </c>
       <c r="P41">
-        <v>-4.16211198</v>
+        <v>-3.99503013</v>
       </c>
       <c r="Q41">
-        <v>-4.16211198</v>
+        <v>-3.99503013</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.09864598856516765</v>
+        <v>0.09626160514256481</v>
       </c>
       <c r="T41">
-        <v>0.8657078721482406</v>
+        <v>0.8653120289649878</v>
       </c>
       <c r="U41">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V41">
-        <v>0.03271197492167011</v>
+        <v>0.0338694481769279</v>
       </c>
       <c r="W41">
-        <v>0.1839781823698984</v>
+        <v>0.1774781823698983</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.1486907950985006</v>
+        <v>0.1539520371678541</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4742,13 +4742,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1336695441490126</v>
+        <v>0.1296800702612249</v>
       </c>
       <c r="C42">
-        <v>2.909056968842613</v>
+        <v>3.945753590233643</v>
       </c>
       <c r="D42">
-        <v>36.68805696884262</v>
+        <v>37.72475359023365</v>
       </c>
       <c r="E42">
         <v>33.8</v>
@@ -4775,37 +4775,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M42">
-        <v>6.428760000000001</v>
+        <v>6.209060000000001</v>
       </c>
       <c r="N42">
-        <v>-5.496760000000001</v>
+        <v>-5.277060000000001</v>
       </c>
       <c r="O42">
-        <v>-1.2092872</v>
+        <v>-1.1609532</v>
       </c>
       <c r="P42">
-        <v>-4.287472800000001</v>
+        <v>-4.116106800000001</v>
       </c>
       <c r="Q42">
-        <v>-4.287472800000001</v>
+        <v>-4.116106800000001</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1000267550412538</v>
+        <v>0.09771096522827422</v>
       </c>
       <c r="T42">
-        <v>0.8801363366840447</v>
+        <v>0.8797338961144042</v>
       </c>
       <c r="U42">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V42">
-        <v>0.03189417554862835</v>
+        <v>0.03302271197250469</v>
       </c>
       <c r="W42">
-        <v>0.1841337278106509</v>
+        <v>0.1776337278106509</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.144973525221038</v>
+        <v>0.1501032362386577</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4824,13 +4824,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1354135441490126</v>
+        <v>0.1314240702612249</v>
       </c>
       <c r="C43">
-        <v>1.529134508272826</v>
+        <v>2.562023017950573</v>
       </c>
       <c r="D43">
-        <v>36.15313450827283</v>
+        <v>37.18602301795057</v>
       </c>
       <c r="E43">
         <v>34.645</v>
@@ -4857,37 +4857,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M43">
-        <v>6.589479000000001</v>
+        <v>6.3642865</v>
       </c>
       <c r="N43">
-        <v>-5.657479</v>
+        <v>-5.4322865</v>
       </c>
       <c r="O43">
-        <v>-1.24464538</v>
+        <v>-1.19510303</v>
       </c>
       <c r="P43">
-        <v>-4.412833620000001</v>
+        <v>-4.23718347</v>
       </c>
       <c r="Q43">
-        <v>-4.412833620000001</v>
+        <v>-4.23718347</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1014543271605971</v>
+        <v>0.09920945616434665</v>
       </c>
       <c r="T43">
-        <v>0.8950539017125878</v>
+        <v>0.8946446401163433</v>
       </c>
       <c r="U43">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V43">
-        <v>0.0311162688279301</v>
+        <v>0.03221727997317531</v>
       </c>
       <c r="W43">
-        <v>0.1842816856689277</v>
+        <v>0.1777816856689277</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.1414375855815005</v>
+        <v>0.1464421816962514</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4906,13 +4906,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1371575441490126</v>
+        <v>0.1331680702612249</v>
       </c>
       <c r="C44">
-        <v>0.1645865310575942</v>
+        <v>1.193462555544585</v>
       </c>
       <c r="D44">
-        <v>35.6335865310576</v>
+        <v>36.66246255554459</v>
       </c>
       <c r="E44">
         <v>35.49</v>
@@ -4939,37 +4939,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M44">
-        <v>6.750198000000001</v>
+        <v>6.519513000000001</v>
       </c>
       <c r="N44">
-        <v>-5.818198000000001</v>
+        <v>-5.587513</v>
       </c>
       <c r="O44">
-        <v>-1.28000356</v>
+        <v>-1.22925286</v>
       </c>
       <c r="P44">
-        <v>-4.538194440000001</v>
+        <v>-4.358260140000001</v>
       </c>
       <c r="Q44">
-        <v>-4.538194440000001</v>
+        <v>-4.358260140000001</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1029311259047453</v>
+        <v>0.100759619201663</v>
       </c>
       <c r="T44">
-        <v>0.9104858655352185</v>
+        <v>0.9100695477045559</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V44">
-        <v>0.03037540528440795</v>
+        <v>0.0314502018785759</v>
       </c>
       <c r="W44">
-        <v>0.1844225979149056</v>
+        <v>0.1779225979149056</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.1380700240200362</v>
+        <v>0.142955463084436</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4988,13 +4988,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1389015441490126</v>
+        <v>0.1349120702612249</v>
       </c>
       <c r="C45">
-        <v>-1.185240401372589</v>
+        <v>-0.1605596631315507</v>
       </c>
       <c r="D45">
-        <v>35.12875959862741</v>
+        <v>36.15344033686845</v>
       </c>
       <c r="E45">
         <v>36.335</v>
@@ -5021,37 +5021,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M45">
-        <v>6.910917</v>
+        <v>6.6747395</v>
       </c>
       <c r="N45">
-        <v>-5.978917</v>
+        <v>-5.7427395</v>
       </c>
       <c r="O45">
-        <v>-1.31536174</v>
+        <v>-1.26340269</v>
       </c>
       <c r="P45">
-        <v>-4.66355526</v>
+        <v>-4.47933681</v>
       </c>
       <c r="Q45">
-        <v>-4.66355526</v>
+        <v>-4.47933681</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1044597421486882</v>
+        <v>0.1023641739244992</v>
       </c>
       <c r="T45">
-        <v>0.9264593017726784</v>
+        <v>0.9260356801204254</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V45">
-        <v>0.02966900051035195</v>
+        <v>0.03071880183488809</v>
       </c>
       <c r="W45">
-        <v>0.1845569561029311</v>
+        <v>0.1780569561029311</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.1348590932288726</v>
+        <v>0.1396309174313095</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5070,13 +5070,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1406455441490126</v>
+        <v>0.1366560702612249</v>
       </c>
       <c r="C46">
-        <v>-2.52096321537131</v>
+        <v>-1.500640893403258</v>
       </c>
       <c r="D46">
-        <v>34.63803678462869</v>
+        <v>35.65835910659674</v>
       </c>
       <c r="E46">
         <v>37.18</v>
@@ -5103,37 +5103,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M46">
-        <v>7.071636</v>
+        <v>6.829966</v>
       </c>
       <c r="N46">
-        <v>-6.139635999999999</v>
+        <v>-5.897965999999999</v>
       </c>
       <c r="O46">
-        <v>-1.35071992</v>
+        <v>-1.29755252</v>
       </c>
       <c r="P46">
-        <v>-4.78891608</v>
+        <v>-4.600413479999999</v>
       </c>
       <c r="Q46">
-        <v>-4.78891608</v>
+        <v>-4.600413479999999</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1060429518299147</v>
+        <v>0.1040260341731509</v>
       </c>
       <c r="T46">
-        <v>0.9430032178757619</v>
+        <v>0.9425720315511473</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.0289947050442076</v>
+        <v>0.03002064724773154</v>
       </c>
       <c r="W46">
-        <v>0.1846852071005917</v>
+        <v>0.1781852071005917</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.1317941138373073</v>
+        <v>0.1364574874896889</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5152,13 +5152,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1423895441490126</v>
+        <v>0.1384000702612249</v>
       </c>
       <c r="C47">
-        <v>-3.843164840185473</v>
+        <v>-2.827346117545055</v>
       </c>
       <c r="D47">
-        <v>34.16083515981452</v>
+        <v>35.17665388245494</v>
       </c>
       <c r="E47">
         <v>38.025</v>
@@ -5185,37 +5185,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M47">
-        <v>7.232355</v>
+        <v>6.9851925</v>
       </c>
       <c r="N47">
-        <v>-6.300355</v>
+        <v>-6.0531925</v>
       </c>
       <c r="O47">
-        <v>-1.3860781</v>
+        <v>-1.33170235</v>
       </c>
       <c r="P47">
-        <v>-4.9142769</v>
+        <v>-4.721490149999999</v>
       </c>
       <c r="Q47">
-        <v>-4.9142769</v>
+        <v>-4.721490149999999</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1076837327722768</v>
+        <v>0.1057483257035719</v>
       </c>
       <c r="T47">
-        <v>0.9601487309280485</v>
+        <v>0.9597097048520773</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.02835037826544743</v>
+        <v>0.02935352175333751</v>
       </c>
       <c r="W47">
-        <v>0.1848077580539119</v>
+        <v>0.1783077580539119</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.1288653557520338</v>
+        <v>0.1334250988788069</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5234,13 +5234,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1441335441490126</v>
+        <v>0.1401440702612249</v>
       </c>
       <c r="C48">
-        <v>-5.152396517988599</v>
+        <v>-4.141210195592478</v>
       </c>
       <c r="D48">
-        <v>33.6966034820114</v>
+        <v>34.70778980440753</v>
       </c>
       <c r="E48">
         <v>38.87</v>
@@ -5267,37 +5267,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M48">
-        <v>7.393074000000001</v>
+        <v>7.140419000000001</v>
       </c>
       <c r="N48">
-        <v>-6.461074000000001</v>
+        <v>-6.208419</v>
       </c>
       <c r="O48">
-        <v>-1.42143628</v>
+        <v>-1.36585218</v>
       </c>
       <c r="P48">
-        <v>-5.039637720000001</v>
+        <v>-4.84256682</v>
       </c>
       <c r="Q48">
-        <v>-5.039637720000001</v>
+        <v>-4.84256682</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1093852833791709</v>
+        <v>0.1075344058091936</v>
       </c>
       <c r="T48">
-        <v>0.9779292629822718</v>
+        <v>0.9774821067937824</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.02773406569445943</v>
+        <v>0.02871540171522147</v>
       </c>
       <c r="W48">
-        <v>0.1849249807049138</v>
+        <v>0.1784249807049138</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.1260639349748156</v>
+        <v>0.1305245532510068</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5316,13 +5316,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1458775441490126</v>
+        <v>0.1418880702612249</v>
       </c>
       <c r="C49">
-        <v>-6.449179928085158</v>
+        <v>-5.442739846409701</v>
       </c>
       <c r="D49">
-        <v>33.24482007191484</v>
+        <v>34.2512601535903</v>
       </c>
       <c r="E49">
         <v>39.715</v>
@@ -5349,37 +5349,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M49">
-        <v>7.553793000000001</v>
+        <v>7.295645500000001</v>
       </c>
       <c r="N49">
-        <v>-6.621793</v>
+        <v>-6.363645500000001</v>
       </c>
       <c r="O49">
-        <v>-1.45679446</v>
+        <v>-1.40000201</v>
       </c>
       <c r="P49">
-        <v>-5.16499854</v>
+        <v>-4.963643490000001</v>
       </c>
       <c r="Q49">
-        <v>-5.16499854</v>
+        <v>-4.963643490000001</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1111510434429288</v>
+        <v>0.109387885164084</v>
       </c>
       <c r="T49">
-        <v>0.9963807585102392</v>
+        <v>0.995925165412533</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.027143979190322</v>
+        <v>0.02810443572128059</v>
       </c>
       <c r="W49">
-        <v>0.1850372151580008</v>
+        <v>0.1785372151580008</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.1233817235923728</v>
+        <v>0.12774743509673</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5398,13 +5398,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1476215441490126</v>
+        <v>0.1436320702612249</v>
       </c>
       <c r="C50">
-        <v>-7.734009142495502</v>
+        <v>-6.732415474438817</v>
       </c>
       <c r="D50">
-        <v>32.80499085750449</v>
+        <v>33.80658452556118</v>
       </c>
       <c r="E50">
         <v>40.56</v>
@@ -5431,37 +5431,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M50">
-        <v>7.714511999999999</v>
+        <v>7.450871999999999</v>
       </c>
       <c r="N50">
-        <v>-6.782511999999999</v>
+        <v>-6.518871999999999</v>
       </c>
       <c r="O50">
-        <v>-1.49215264</v>
+        <v>-1.43415184</v>
       </c>
       <c r="P50">
-        <v>-5.290359359999999</v>
+        <v>-5.08472016</v>
       </c>
       <c r="Q50">
-        <v>-5.290359359999999</v>
+        <v>-5.08472016</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1129847173552928</v>
+        <v>0.1113126521864702</v>
       </c>
       <c r="T50">
-        <v>1.015541926943128</v>
+        <v>1.015077572439697</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.02657847962385696</v>
+        <v>0.02751892664375391</v>
       </c>
       <c r="W50">
-        <v>0.1851447731755424</v>
+        <v>0.1786447731755424</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.1208112710175318</v>
+        <v>0.1250860301988814</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5480,13 +5480,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1493655441490126</v>
+        <v>0.1453760702612249</v>
       </c>
       <c r="C51">
-        <v>-9.007352428333199</v>
+        <v>-8.010692855975456</v>
       </c>
       <c r="D51">
-        <v>32.3766475716668</v>
+        <v>33.37330714402454</v>
       </c>
       <c r="E51">
         <v>41.405</v>
@@ -5513,37 +5513,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M51">
-        <v>7.875231</v>
+        <v>7.6060985</v>
       </c>
       <c r="N51">
-        <v>-6.943231</v>
+        <v>-6.674098499999999</v>
       </c>
       <c r="O51">
-        <v>-1.52751082</v>
+        <v>-1.46830167</v>
       </c>
       <c r="P51">
-        <v>-5.41572018</v>
+        <v>-5.20579683</v>
       </c>
       <c r="Q51">
-        <v>-5.41572018</v>
+        <v>-5.20579683</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1148903000485338</v>
+        <v>0.1133129002685579</v>
       </c>
       <c r="T51">
-        <v>1.035454513745935</v>
+        <v>1.03498105425224</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.02603606167234968</v>
+        <v>0.0269573158959222</v>
       </c>
       <c r="W51">
-        <v>0.1852479410699191</v>
+        <v>0.1787479410699191</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.1183457348743168</v>
+        <v>0.1225332540723737</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5562,13 +5562,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1511095441490126</v>
+        <v>0.1471200702612249</v>
       </c>
       <c r="C52">
-        <v>-10.26965391079776</v>
+        <v>-9.278004697413792</v>
       </c>
       <c r="D52">
-        <v>31.95934608920224</v>
+        <v>32.95099530258621</v>
       </c>
       <c r="E52">
         <v>42.25</v>
@@ -5595,37 +5595,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M52">
-        <v>8.03595</v>
+        <v>7.761325</v>
       </c>
       <c r="N52">
-        <v>-7.103949999999999</v>
+        <v>-6.829325</v>
       </c>
       <c r="O52">
-        <v>-1.562869</v>
+        <v>-1.5024515</v>
       </c>
       <c r="P52">
-        <v>-5.541080999999999</v>
+        <v>-5.3268735</v>
       </c>
       <c r="Q52">
-        <v>-5.541080999999999</v>
+        <v>-5.3268735</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1168721060495045</v>
+        <v>0.1153931582739291</v>
       </c>
       <c r="T52">
-        <v>1.056163604020854</v>
+        <v>1.055680675337285</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.02551534043890268</v>
+        <v>0.02641816957800376</v>
       </c>
       <c r="W52">
-        <v>0.1853469822485207</v>
+        <v>0.1788469822485207</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.1159788201768304</v>
+        <v>0.1200825889909262</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5644,13 +5644,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1528535441490126</v>
+        <v>0.1488640702612249</v>
       </c>
       <c r="C53">
-        <v>-11.52133510919835</v>
+        <v>-10.5347620766601</v>
       </c>
       <c r="D53">
-        <v>31.55266489080165</v>
+        <v>32.5392379233399</v>
       </c>
       <c r="E53">
         <v>43.095</v>
@@ -5677,37 +5677,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M53">
-        <v>8.196669</v>
+        <v>7.9165515</v>
       </c>
       <c r="N53">
-        <v>-7.264669</v>
+        <v>-6.984551499999999</v>
       </c>
       <c r="O53">
-        <v>-1.59822718</v>
+        <v>-1.53660133</v>
       </c>
       <c r="P53">
-        <v>-5.666441819999999</v>
+        <v>-5.447950169999999</v>
       </c>
       <c r="Q53">
-        <v>-5.666441819999999</v>
+        <v>-5.447950169999999</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1189348020913311</v>
+        <v>0.1175583247693153</v>
       </c>
       <c r="T53">
-        <v>1.077717963286585</v>
+        <v>1.077225178915597</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.02501503964598302</v>
+        <v>0.02590016625294486</v>
       </c>
       <c r="W53">
-        <v>0.185442139459334</v>
+        <v>0.178942139459334</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.1137047256635593</v>
+        <v>0.1177280284224766</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5726,13 +5726,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1545975441490126</v>
+        <v>0.1506080702612249</v>
       </c>
       <c r="C54">
-        <v>-12.76279635717606</v>
+        <v>-11.78135577780823</v>
       </c>
       <c r="D54">
-        <v>31.15620364282394</v>
+        <v>32.13764422219177</v>
       </c>
       <c r="E54">
         <v>43.94</v>
@@ -5759,37 +5759,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M54">
-        <v>8.357388000000002</v>
+        <v>8.071778</v>
       </c>
       <c r="N54">
-        <v>-7.425388000000002</v>
+        <v>-7.139778</v>
       </c>
       <c r="O54">
-        <v>-1.63358536</v>
+        <v>-1.57075116</v>
       </c>
       <c r="P54">
-        <v>-5.791802640000001</v>
+        <v>-5.569026839999999</v>
       </c>
       <c r="Q54">
-        <v>-5.791802640000001</v>
+        <v>-5.569026839999999</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1210834438015672</v>
+        <v>0.1198137065353428</v>
       </c>
       <c r="T54">
-        <v>1.100170420855056</v>
+        <v>1.099667370143005</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.02453398119125257</v>
+        <v>0.02540208613269592</v>
       </c>
       <c r="W54">
-        <v>0.1855336367774238</v>
+        <v>0.1790336367774238</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.1115180963238753</v>
+        <v>0.1154640278758906</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5808,13 +5808,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1563415441490126</v>
+        <v>0.1523520702612249</v>
       </c>
       <c r="C55">
-        <v>-13.99441811718372</v>
+        <v>-13.01815752818593</v>
       </c>
       <c r="D55">
-        <v>30.76958188281629</v>
+        <v>31.74584247181407</v>
       </c>
       <c r="E55">
         <v>44.785</v>
@@ -5841,37 +5841,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M55">
-        <v>8.518107000000001</v>
+        <v>8.227004500000001</v>
       </c>
       <c r="N55">
-        <v>-7.586107</v>
+        <v>-7.295004500000001</v>
       </c>
       <c r="O55">
-        <v>-1.66894354</v>
+        <v>-1.60490099</v>
       </c>
       <c r="P55">
-        <v>-5.91716346</v>
+        <v>-5.690103510000001</v>
       </c>
       <c r="Q55">
-        <v>-5.91716346</v>
+        <v>-5.690103510000001</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.123323517073941</v>
+        <v>0.1221650619935415</v>
       </c>
       <c r="T55">
-        <v>1.123578302149844</v>
+        <v>1.123064548231154</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.02407107588575725</v>
+        <v>0.02492280148868279</v>
       </c>
       <c r="W55">
-        <v>0.185621681366529</v>
+        <v>0.179121681366529</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.1094139812988966</v>
+        <v>0.1132854613121945</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5890,13 +5890,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1580855441490126</v>
+        <v>0.1540960702612249</v>
       </c>
       <c r="C56">
-        <v>-15.21656219829594</v>
+        <v>-14.24552114600347</v>
       </c>
       <c r="D56">
-        <v>30.39243780170407</v>
+        <v>31.36347885399653</v>
       </c>
       <c r="E56">
         <v>45.63</v>
@@ -5923,37 +5923,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M56">
-        <v>8.678826000000001</v>
+        <v>8.382231000000001</v>
       </c>
       <c r="N56">
-        <v>-7.746826</v>
+        <v>-7.450231</v>
       </c>
       <c r="O56">
-        <v>-1.70430172</v>
+        <v>-1.63905082</v>
       </c>
       <c r="P56">
-        <v>-6.04252428</v>
+        <v>-5.811180180000001</v>
       </c>
       <c r="Q56">
-        <v>-6.04252428</v>
+        <v>-5.811180180000001</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.125660984836418</v>
+        <v>0.124618650297749</v>
       </c>
       <c r="T56">
-        <v>1.148003917413971</v>
+        <v>1.147478994931832</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.02362531522120619</v>
+        <v>0.02446126812778125</v>
       </c>
       <c r="W56">
-        <v>0.1857064650449266</v>
+        <v>0.1792064650449266</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.1073877964600282</v>
+        <v>0.1111875823990057</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5972,13 +5972,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1598295441490126</v>
+        <v>0.1558400702612249</v>
       </c>
       <c r="C57">
-        <v>-16.42957288554308</v>
+        <v>-15.46378360605187</v>
       </c>
       <c r="D57">
-        <v>30.02442711445692</v>
+        <v>30.99021639394813</v>
       </c>
       <c r="E57">
         <v>46.475</v>
@@ -6005,37 +6005,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M57">
-        <v>8.839545000000001</v>
+        <v>8.5374575</v>
       </c>
       <c r="N57">
-        <v>-7.907545000000001</v>
+        <v>-7.6054575</v>
       </c>
       <c r="O57">
-        <v>-1.7396599</v>
+        <v>-1.67320065</v>
       </c>
       <c r="P57">
-        <v>-6.1678851</v>
+        <v>-5.93225685</v>
       </c>
       <c r="Q57">
-        <v>-6.1678851</v>
+        <v>-5.93225685</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1281023400550051</v>
+        <v>0.1271812869710323</v>
       </c>
       <c r="T57">
-        <v>1.173515115578726</v>
+        <v>1.172978528152539</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.02319576403536607</v>
+        <v>0.02401651779818523</v>
       </c>
       <c r="W57">
-        <v>0.1857881656804734</v>
+        <v>0.1792881656804734</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.1054352910698458</v>
+        <v>0.1091659899917511</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6054,13 +6054,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1615735441490126</v>
+        <v>0.1575840702612249</v>
       </c>
       <c r="C58">
-        <v>-17.63377798817877</v>
+        <v>-16.67326603019787</v>
       </c>
       <c r="D58">
-        <v>29.66522201182123</v>
+        <v>30.62573396980214</v>
       </c>
       <c r="E58">
         <v>47.32000000000001</v>
@@ -6087,37 +6087,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M58">
-        <v>9.000264000000001</v>
+        <v>8.692684000000002</v>
       </c>
       <c r="N58">
-        <v>-8.068264000000001</v>
+        <v>-7.760684000000001</v>
       </c>
       <c r="O58">
-        <v>-1.77501808</v>
+        <v>-1.70735048</v>
       </c>
       <c r="P58">
-        <v>-6.29324592</v>
+        <v>-6.053333520000001</v>
       </c>
       <c r="Q58">
-        <v>-6.29324592</v>
+        <v>-6.053333520000001</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1306546659653461</v>
+        <v>0.1298604071294648</v>
       </c>
       <c r="T58">
-        <v>1.200185913660061</v>
+        <v>1.199637131065097</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.02278155396330596</v>
+        <v>0.02358765140893192</v>
       </c>
       <c r="W58">
-        <v>0.1858669484361792</v>
+        <v>0.1793669484361792</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.1035525180150272</v>
+        <v>0.107216597313327</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6136,13 +6136,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1633175441490126</v>
+        <v>0.1593280702612249</v>
       </c>
       <c r="C59">
-        <v>-18.82948981358956</v>
+        <v>-17.87427460879477</v>
       </c>
       <c r="D59">
-        <v>29.31451018641044</v>
+        <v>30.26972539120524</v>
       </c>
       <c r="E59">
         <v>48.16500000000001</v>
@@ -6169,37 +6169,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M59">
-        <v>9.160983000000002</v>
+        <v>8.847910500000001</v>
       </c>
       <c r="N59">
-        <v>-8.228983000000001</v>
+        <v>-7.915910500000001</v>
       </c>
       <c r="O59">
-        <v>-1.81037626</v>
+        <v>-1.74150031</v>
       </c>
       <c r="P59">
-        <v>-6.418606740000001</v>
+        <v>-6.174410190000001</v>
       </c>
       <c r="Q59">
-        <v>-6.418606740000001</v>
+        <v>-6.174410190000001</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1333257047087262</v>
+        <v>0.1326641375278245</v>
       </c>
       <c r="T59">
-        <v>1.228097213977737</v>
+        <v>1.227535668996843</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.0223818775779848</v>
+        <v>0.02317383296316119</v>
       </c>
       <c r="W59">
-        <v>0.1859429668846673</v>
+        <v>0.1794429668846673</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.1017358071726583</v>
+        <v>0.1053356043780055</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6218,13 +6218,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1650615441490126</v>
+        <v>0.1610720702612249</v>
       </c>
       <c r="C60">
-        <v>-20.01700607292866</v>
+        <v>-19.06710145856627</v>
       </c>
       <c r="D60">
-        <v>28.97199392707133</v>
+        <v>29.92189854143373</v>
       </c>
       <c r="E60">
         <v>49.01</v>
@@ -6251,37 +6251,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M60">
-        <v>9.321702</v>
+        <v>9.003137000000001</v>
       </c>
       <c r="N60">
-        <v>-8.389702</v>
+        <v>-8.071137</v>
       </c>
       <c r="O60">
-        <v>-1.84573444</v>
+        <v>-1.77565014</v>
       </c>
       <c r="P60">
-        <v>-6.54396756</v>
+        <v>-6.29548686</v>
       </c>
       <c r="Q60">
-        <v>-6.54396756</v>
+        <v>-6.29548686</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1361239357732197</v>
+        <v>0.1356013788975346</v>
       </c>
       <c r="T60">
-        <v>1.257337623834349</v>
+        <v>1.256762708734863</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.02199598313698507</v>
+        <v>0.02277428411896876</v>
       </c>
       <c r="W60">
-        <v>0.1860163640073454</v>
+        <v>0.1795163640073454</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.09998174153175032</v>
+        <v>0.1035194732680398</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1668055441490126</v>
+        <v>0.1628160702612249</v>
       </c>
       <c r="C61">
-        <v>-21.19661072399333</v>
+        <v>-20.25202542201494</v>
       </c>
       <c r="D61">
-        <v>28.63738927600666</v>
+        <v>29.58197457798505</v>
       </c>
       <c r="E61">
         <v>49.855</v>
@@ -6333,37 +6333,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M61">
-        <v>9.482421</v>
+        <v>9.1583635</v>
       </c>
       <c r="N61">
-        <v>-8.550421</v>
+        <v>-8.2263635</v>
       </c>
       <c r="O61">
-        <v>-1.88109262</v>
+        <v>-1.80979997</v>
       </c>
       <c r="P61">
-        <v>-6.66932838</v>
+        <v>-6.416563529999999</v>
       </c>
       <c r="Q61">
-        <v>-6.66932838</v>
+        <v>-6.416563529999999</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1390586659140299</v>
+        <v>0.1386819003340598</v>
       </c>
       <c r="T61">
-        <v>1.288004395147382</v>
+        <v>1.287415457728396</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.02162316986347685</v>
+        <v>0.02238827930339302</v>
       </c>
       <c r="W61">
-        <v>0.1860872730919667</v>
+        <v>0.1795872730919667</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.09828713574307657</v>
+        <v>0.1017649059245137</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6382,13 +6382,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1685495441490126</v>
+        <v>0.1645600702612249</v>
       </c>
       <c r="C62">
-        <v>-22.36857475636148</v>
+        <v>-21.42931281295328</v>
       </c>
       <c r="D62">
-        <v>28.31042524363852</v>
+        <v>29.24968718704672</v>
       </c>
       <c r="E62">
         <v>50.7</v>
@@ -6415,37 +6415,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M62">
-        <v>9.643139999999999</v>
+        <v>9.31359</v>
       </c>
       <c r="N62">
-        <v>-8.711139999999999</v>
+        <v>-8.381589999999999</v>
       </c>
       <c r="O62">
-        <v>-1.9164508</v>
+        <v>-1.8439498</v>
       </c>
       <c r="P62">
-        <v>-6.794689199999999</v>
+        <v>-6.537640199999999</v>
       </c>
       <c r="Q62">
-        <v>-6.794689199999999</v>
+        <v>-6.537640199999999</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1421401325618807</v>
+        <v>0.1419164478424113</v>
       </c>
       <c r="T62">
-        <v>1.320204505026067</v>
+        <v>1.319600844171606</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.02126278369908557</v>
+        <v>0.02201514131500313</v>
       </c>
       <c r="W62">
-        <v>0.1861558185404339</v>
+        <v>0.1796558185404339</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.09664901681402538</v>
+        <v>0.1000688241591052</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6464,13 +6464,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1702935441490127</v>
+        <v>0.1663040702612249</v>
       </c>
       <c r="C63">
-        <v>-23.53315692335018</v>
+        <v>-22.59921811234671</v>
       </c>
       <c r="D63">
-        <v>27.99084307664982</v>
+        <v>28.92478188765329</v>
       </c>
       <c r="E63">
         <v>51.545</v>
@@ -6497,37 +6497,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M63">
-        <v>9.803859000000001</v>
+        <v>9.468816500000001</v>
       </c>
       <c r="N63">
-        <v>-8.871859000000001</v>
+        <v>-8.5368165</v>
       </c>
       <c r="O63">
-        <v>-1.95180898</v>
+        <v>-1.87809963</v>
       </c>
       <c r="P63">
-        <v>-6.920050020000001</v>
+        <v>-6.65871687</v>
       </c>
       <c r="Q63">
-        <v>-6.920050020000001</v>
+        <v>-6.65871687</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1453796231403905</v>
+        <v>0.1453168695819603</v>
       </c>
       <c r="T63">
-        <v>1.354055902590838</v>
+        <v>1.353436763252929</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.02091421347451039</v>
+        <v>0.02165423735901947</v>
       </c>
       <c r="W63">
-        <v>0.1862221165971481</v>
+        <v>0.1797221165971481</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.09506460670231998</v>
+        <v>0.09842835163190677</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6546,13 +6546,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1720375441490126</v>
+        <v>0.1680480702612249</v>
       </c>
       <c r="C64">
-        <v>-24.69060442495145</v>
+        <v>-23.76198461828948</v>
       </c>
       <c r="D64">
-        <v>27.67839557504855</v>
+        <v>28.60701538171052</v>
       </c>
       <c r="E64">
         <v>52.39</v>
@@ -6579,37 +6579,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M64">
-        <v>9.964578000000001</v>
+        <v>9.624043</v>
       </c>
       <c r="N64">
-        <v>-9.032578000000001</v>
+        <v>-8.692043</v>
       </c>
       <c r="O64">
-        <v>-1.98716716</v>
+        <v>-1.91224946</v>
       </c>
       <c r="P64">
-        <v>-7.045410840000001</v>
+        <v>-6.77979354</v>
       </c>
       <c r="Q64">
-        <v>-7.045410840000001</v>
+        <v>-6.77979354</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1487896132230323</v>
+        <v>0.1488962608867487</v>
       </c>
       <c r="T64">
-        <v>1.389688952659018</v>
+        <v>1.389053520180638</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.02057688745072797</v>
+        <v>0.02130497546613206</v>
       </c>
       <c r="W64">
-        <v>0.1862862760068716</v>
+        <v>0.1797862760068715</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.09353130659421804</v>
+        <v>0.09684079757332764</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6628,13 +6628,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1737815441490126</v>
+        <v>0.1697920702612249</v>
       </c>
       <c r="C65">
-        <v>-25.84115354553324</v>
+        <v>-24.91784505360256</v>
       </c>
       <c r="D65">
-        <v>27.37284645446676</v>
+        <v>28.29615494639744</v>
       </c>
       <c r="E65">
         <v>53.235</v>
@@ -6661,37 +6661,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M65">
-        <v>10.125297</v>
+        <v>9.7792695</v>
       </c>
       <c r="N65">
-        <v>-9.193296999999999</v>
+        <v>-8.847269499999999</v>
       </c>
       <c r="O65">
-        <v>-2.02252534</v>
+        <v>-1.94639929</v>
       </c>
       <c r="P65">
-        <v>-7.17077166</v>
+        <v>-6.90087021</v>
       </c>
       <c r="Q65">
-        <v>-7.17077166</v>
+        <v>-6.90087021</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.152383927093925</v>
+        <v>0.1526691328026068</v>
       </c>
       <c r="T65">
-        <v>1.427248113541694</v>
+        <v>1.426595507212547</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.0202502701896053</v>
+        <v>0.02096680125238394</v>
       </c>
       <c r="W65">
-        <v>0.1863483986099371</v>
+        <v>0.1798483986099371</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.09204668268002414</v>
+        <v>0.09530364205629061</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6710,13 +6710,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1755255441490126</v>
+        <v>0.1715360702612249</v>
       </c>
       <c r="C66">
-        <v>-26.98503024976317</v>
+        <v>-26.06702213424227</v>
       </c>
       <c r="D66">
-        <v>27.07396975023682</v>
+        <v>27.99197786575773</v>
       </c>
       <c r="E66">
         <v>54.08</v>
@@ -6743,37 +6743,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M66">
-        <v>10.286016</v>
+        <v>9.934495999999999</v>
       </c>
       <c r="N66">
-        <v>-9.354016</v>
+        <v>-9.002495999999999</v>
       </c>
       <c r="O66">
-        <v>-2.05788352</v>
+        <v>-1.98054912</v>
       </c>
       <c r="P66">
-        <v>-7.29613248</v>
+        <v>-7.021946879999999</v>
       </c>
       <c r="Q66">
-        <v>-7.29613248</v>
+        <v>-7.021946879999999</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.1561779250687563</v>
+        <v>0.1566516087137904</v>
       </c>
       <c r="T66">
-        <v>1.466893894473408</v>
+        <v>1.466223160190674</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.01993385971789272</v>
+        <v>0.02063919498281544</v>
       </c>
       <c r="W66">
-        <v>0.1864085798816568</v>
+        <v>0.1799085798816568</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.09060845326314881</v>
+        <v>0.09381452264916113</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6792,13 +6792,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1772695441490126</v>
+        <v>0.1732800702612249</v>
       </c>
       <c r="C67">
-        <v>-28.12245073991356</v>
+        <v>-27.20972910143721</v>
       </c>
       <c r="D67">
-        <v>26.78154926008644</v>
+        <v>27.6942708985628</v>
       </c>
       <c r="E67">
         <v>54.925</v>
@@ -6825,37 +6825,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M67">
-        <v>10.446735</v>
+        <v>10.0897225</v>
       </c>
       <c r="N67">
-        <v>-9.514735000000002</v>
+        <v>-9.1577225</v>
       </c>
       <c r="O67">
-        <v>-2.093241700000001</v>
+        <v>-2.01469895</v>
       </c>
       <c r="P67">
-        <v>-7.421493300000002</v>
+        <v>-7.143023550000001</v>
       </c>
       <c r="Q67">
-        <v>-7.421493300000002</v>
+        <v>-7.143023550000001</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.1601887229278637</v>
+        <v>0.1608616546770415</v>
       </c>
       <c r="T67">
-        <v>1.50880514860122</v>
+        <v>1.508115250481836</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.01962718495300206</v>
+        <v>0.02032166890615673</v>
       </c>
       <c r="W67">
-        <v>0.186466909421939</v>
+        <v>0.179966909421939</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.08921447705910035</v>
+        <v>0.09237122230071249</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6874,13 +6874,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.1790135441490126</v>
+        <v>0.1750240702612249</v>
       </c>
       <c r="C68">
-        <v>-29.25362197743628</v>
+        <v>-28.34617022022557</v>
       </c>
       <c r="D68">
-        <v>26.49537802256372</v>
+        <v>27.40282977977443</v>
       </c>
       <c r="E68">
         <v>55.77</v>
@@ -6907,37 +6907,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M68">
-        <v>10.607454</v>
+        <v>10.244949</v>
       </c>
       <c r="N68">
-        <v>-9.675454</v>
+        <v>-9.312949</v>
       </c>
       <c r="O68">
-        <v>-2.12859988</v>
+        <v>-2.04884878</v>
       </c>
       <c r="P68">
-        <v>-7.546854120000001</v>
+        <v>-7.26410022</v>
       </c>
       <c r="Q68">
-        <v>-7.546854120000001</v>
+        <v>-7.26410022</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.1644354500728008</v>
+        <v>0.1653193504028368</v>
       </c>
       <c r="T68">
-        <v>1.553181770618902</v>
+        <v>1.55247158137836</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.01932980336280506</v>
+        <v>0.02001376483182103</v>
       </c>
       <c r="W68">
-        <v>0.1865234714003945</v>
+        <v>0.1800234714003945</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.08786274255820481</v>
+        <v>0.09097165832645926</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6956,13 +6956,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.1807575441490126</v>
+        <v>0.1767680702612249</v>
       </c>
       <c r="C69">
-        <v>-30.37874217145183</v>
+        <v>-29.47654124684206</v>
       </c>
       <c r="D69">
-        <v>26.21525782854817</v>
+        <v>27.11745875315794</v>
       </c>
       <c r="E69">
         <v>56.615</v>
@@ -6989,37 +6989,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M69">
-        <v>10.768173</v>
+        <v>10.4001755</v>
       </c>
       <c r="N69">
-        <v>-9.836173</v>
+        <v>-9.468175500000001</v>
       </c>
       <c r="O69">
-        <v>-2.16395806</v>
+        <v>-2.08299861</v>
       </c>
       <c r="P69">
-        <v>-7.67221494</v>
+        <v>-7.38517689</v>
       </c>
       <c r="Q69">
-        <v>-7.67221494</v>
+        <v>-7.38517689</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.1689395546204614</v>
+        <v>0.1700472095059531</v>
       </c>
       <c r="T69">
-        <v>1.600247884880081</v>
+        <v>1.599516174753462</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.019041298835002</v>
+        <v>0.0197150519238834</v>
       </c>
       <c r="W69">
-        <v>0.1865783449615826</v>
+        <v>0.1800783449615826</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.08655135834091821</v>
+        <v>0.08961387238128815</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -7038,13 +7038,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1825015441490127</v>
+        <v>0.1785120702612249</v>
       </c>
       <c r="C70">
-        <v>-31.49800123657555</v>
+        <v>-30.60102986720169</v>
       </c>
       <c r="D70">
-        <v>25.94099876342445</v>
+        <v>26.83797013279831</v>
       </c>
       <c r="E70">
         <v>57.46</v>
@@ -7071,37 +7071,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M70">
-        <v>10.928892</v>
+        <v>10.555402</v>
       </c>
       <c r="N70">
-        <v>-9.996892000000001</v>
+        <v>-9.623402</v>
       </c>
       <c r="O70">
-        <v>-2.19931624</v>
+        <v>-2.11714844</v>
       </c>
       <c r="P70">
-        <v>-7.797575760000001</v>
+        <v>-7.50625356</v>
       </c>
       <c r="Q70">
-        <v>-7.797575760000001</v>
+        <v>-7.50625356</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.1737251657023509</v>
+        <v>0.1750705598030141</v>
       </c>
       <c r="T70">
-        <v>1.650255631282584</v>
+        <v>1.649501055214508</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.01876127973448726</v>
+        <v>0.01942512468970864</v>
       </c>
       <c r="W70">
-        <v>0.1866316045945005</v>
+        <v>0.1801316045945005</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.08527854424766945</v>
+        <v>0.08829602131685754</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7120,13 +7120,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1842455441490126</v>
+        <v>0.1802560702612249</v>
       </c>
       <c r="C71">
-        <v>-32.6115812223031</v>
+        <v>-31.71981610854476</v>
       </c>
       <c r="D71">
-        <v>25.6724187776969</v>
+        <v>26.56418389145525</v>
       </c>
       <c r="E71">
         <v>58.30500000000001</v>
@@ -7153,37 +7153,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M71">
-        <v>11.089611</v>
+        <v>10.7106285</v>
       </c>
       <c r="N71">
-        <v>-10.157611</v>
+        <v>-9.778628500000002</v>
       </c>
       <c r="O71">
-        <v>-2.23467442</v>
+        <v>-2.15129827</v>
       </c>
       <c r="P71">
-        <v>-7.922936580000001</v>
+        <v>-7.627330230000002</v>
       </c>
       <c r="Q71">
-        <v>-7.922936580000001</v>
+        <v>-7.627330230000002</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.1788195258862977</v>
+        <v>0.1804179972160146</v>
       </c>
       <c r="T71">
-        <v>1.703489683904603</v>
+        <v>1.702710766673041</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.01848937712963962</v>
+        <v>0.01914360114348098</v>
       </c>
       <c r="W71">
-        <v>0.1866833204699425</v>
+        <v>0.1801833204699425</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.08404262331654377</v>
+        <v>0.08701636883400443</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7202,13 +7202,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1859895441490126</v>
+        <v>0.1820000702612249</v>
       </c>
       <c r="C72">
-        <v>-33.71965671599561</v>
+        <v>-32.83307272613978</v>
       </c>
       <c r="D72">
-        <v>25.40934328400439</v>
+        <v>26.29592727386023</v>
       </c>
       <c r="E72">
         <v>59.15000000000001</v>
@@ -7235,37 +7235,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M72">
-        <v>11.25033</v>
+        <v>10.865855</v>
       </c>
       <c r="N72">
-        <v>-10.31833</v>
+        <v>-9.933855000000001</v>
       </c>
       <c r="O72">
-        <v>-2.2700326</v>
+        <v>-2.1854481</v>
       </c>
       <c r="P72">
-        <v>-8.048297400000001</v>
+        <v>-7.748406900000001</v>
       </c>
       <c r="Q72">
-        <v>-8.048297400000001</v>
+        <v>-7.748406900000001</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.1842535100825076</v>
+        <v>0.1861219304565484</v>
       </c>
       <c r="T72">
-        <v>1.76027267336809</v>
+        <v>1.759467792228809</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.01822524317064477</v>
+        <v>0.01887012112714554</v>
       </c>
       <c r="W72">
-        <v>0.1867335587489434</v>
+        <v>0.1802335587489434</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.08284201441202166</v>
+        <v>0.08577327785066158</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7284,13 +7284,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1877335441490126</v>
+        <v>0.1837440702612249</v>
       </c>
       <c r="C73">
-        <v>-34.82239522133867</v>
+        <v>-33.94096556679028</v>
       </c>
       <c r="D73">
-        <v>25.15160477866133</v>
+        <v>26.03303443320972</v>
       </c>
       <c r="E73">
         <v>59.995</v>
@@ -7317,37 +7317,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M73">
-        <v>11.411049</v>
+        <v>11.0210815</v>
       </c>
       <c r="N73">
-        <v>-10.479049</v>
+        <v>-10.0890815</v>
       </c>
       <c r="O73">
-        <v>-2.30539078</v>
+        <v>-2.21959793</v>
       </c>
       <c r="P73">
-        <v>-8.17365822</v>
+        <v>-7.869483569999999</v>
       </c>
       <c r="Q73">
-        <v>-8.17365822</v>
+        <v>-7.869483569999999</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.1900622518094906</v>
+        <v>0.1922192384033259</v>
       </c>
       <c r="T73">
-        <v>1.820971731070437</v>
+        <v>1.820139095409112</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.01796854960486104</v>
+        <v>0.01860434477324208</v>
       </c>
       <c r="W73">
-        <v>0.1867823818651554</v>
+        <v>0.1802823818651554</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.08167522547664119</v>
+        <v>0.08456520351473673</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7366,13 +7366,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1894775441490126</v>
+        <v>0.1854880702612249</v>
       </c>
       <c r="C74">
-        <v>-35.91995751399954</v>
+        <v>-35.04365391075251</v>
       </c>
       <c r="D74">
-        <v>24.89904248600045</v>
+        <v>25.77534608924748</v>
       </c>
       <c r="E74">
         <v>60.84</v>
@@ -7399,37 +7399,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M74">
-        <v>11.571768</v>
+        <v>11.176308</v>
       </c>
       <c r="N74">
-        <v>-10.639768</v>
+        <v>-10.244308</v>
       </c>
       <c r="O74">
-        <v>-2.34074896</v>
+        <v>-2.25374776</v>
       </c>
       <c r="P74">
-        <v>-8.299019040000001</v>
+        <v>-7.990560239999999</v>
       </c>
       <c r="Q74">
-        <v>-8.299019040000001</v>
+        <v>-7.990560239999999</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.1962859036598295</v>
+        <v>0.1987520683463019</v>
       </c>
       <c r="T74">
-        <v>1.886006435751524</v>
+        <v>1.885144063102294</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.01771898641590464</v>
+        <v>0.01834595109583595</v>
       </c>
       <c r="W74">
-        <v>0.1868298487836949</v>
+        <v>0.180329848783695</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.08054084734502109</v>
+        <v>0.08339068679925432</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7448,13 +7448,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1912215441490126</v>
+        <v>0.1872320702612249</v>
       </c>
       <c r="C75">
-        <v>-37.01249797606901</v>
+        <v>-36.14129079354521</v>
       </c>
       <c r="D75">
-        <v>24.65150202393098</v>
+        <v>25.52270920645478</v>
       </c>
       <c r="E75">
         <v>61.685</v>
@@ -7481,37 +7481,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M75">
-        <v>11.732487</v>
+        <v>11.3315345</v>
       </c>
       <c r="N75">
-        <v>-10.800487</v>
+        <v>-10.3995345</v>
       </c>
       <c r="O75">
-        <v>-2.37610714</v>
+        <v>-2.28789759</v>
       </c>
       <c r="P75">
-        <v>-8.424379859999998</v>
+        <v>-8.11163691</v>
       </c>
       <c r="Q75">
-        <v>-8.424379859999998</v>
+        <v>-8.11163691</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.2029705667583417</v>
+        <v>0.2057688116183871</v>
       </c>
       <c r="T75">
-        <v>1.955858525964544</v>
+        <v>1.954964213587565</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.01747626057459088</v>
+        <v>0.01809463669726285</v>
       </c>
       <c r="W75">
-        <v>0.1868760152387128</v>
+        <v>0.1803760152387128</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.07943754806632219</v>
+        <v>0.08224834862392205</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7530,13 +7530,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1929655441490126</v>
+        <v>0.1889760702612249</v>
       </c>
       <c r="C76">
-        <v>-38.10016491075003</v>
+        <v>-37.2340233090179</v>
       </c>
       <c r="D76">
-        <v>24.40883508924997</v>
+        <v>25.2749766909821</v>
       </c>
       <c r="E76">
         <v>62.53</v>
@@ -7563,37 +7563,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M76">
-        <v>11.893206</v>
+        <v>11.486761</v>
       </c>
       <c r="N76">
-        <v>-10.961206</v>
+        <v>-10.554761</v>
       </c>
       <c r="O76">
-        <v>-2.41146532</v>
+        <v>-2.32204742</v>
       </c>
       <c r="P76">
-        <v>-8.549740680000001</v>
+        <v>-8.232713579999999</v>
       </c>
       <c r="Q76">
-        <v>-8.549740680000001</v>
+        <v>-8.232713579999999</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.2101694347105856</v>
+        <v>0.2133253043729404</v>
       </c>
       <c r="T76">
-        <v>2.031083853886257</v>
+        <v>2.030155144879394</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.01724009489115046</v>
+        <v>0.01785011457973227</v>
       </c>
       <c r="W76">
-        <v>0.1869209339517032</v>
+        <v>0.1804209339517032</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.07836406768704762</v>
+        <v>0.08113688445332856</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7612,13 +7612,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1947095441490126</v>
+        <v>0.1907200702612249</v>
       </c>
       <c r="C77">
-        <v>-39.18310083864104</v>
+        <v>-38.32199289493857</v>
       </c>
       <c r="D77">
-        <v>24.17089916135896</v>
+        <v>25.03200710506142</v>
       </c>
       <c r="E77">
         <v>63.375</v>
@@ -7645,37 +7645,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M77">
-        <v>12.053925</v>
+        <v>11.6419875</v>
       </c>
       <c r="N77">
-        <v>-11.121925</v>
+        <v>-10.7099875</v>
       </c>
       <c r="O77">
-        <v>-2.4468235</v>
+        <v>-2.35619725</v>
       </c>
       <c r="P77">
-        <v>-8.6751015</v>
+        <v>-8.353790249999999</v>
       </c>
       <c r="Q77">
-        <v>-8.6751015</v>
+        <v>-8.353790249999999</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2179442120990091</v>
+        <v>0.2214863165478581</v>
       </c>
       <c r="T77">
-        <v>2.112327208041707</v>
+        <v>2.11136135067457</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.01701022695926845</v>
+        <v>0.0176121130520025</v>
       </c>
       <c r="W77">
-        <v>0.1869646548323471</v>
+        <v>0.1804646548323471</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.07731921345122028</v>
+        <v>0.08005505932728418</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7694,13 +7694,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1964535441490126</v>
+        <v>0.1924640702612249</v>
       </c>
       <c r="C78">
-        <v>-40.26144277685753</v>
+        <v>-39.40533560226631</v>
       </c>
       <c r="D78">
-        <v>23.93755722314247</v>
+        <v>24.79366439773369</v>
       </c>
       <c r="E78">
         <v>64.22</v>
@@ -7727,37 +7727,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M78">
-        <v>12.214644</v>
+        <v>11.797214</v>
       </c>
       <c r="N78">
-        <v>-11.282644</v>
+        <v>-10.865214</v>
       </c>
       <c r="O78">
-        <v>-2.48218168</v>
+        <v>-2.39034708</v>
       </c>
       <c r="P78">
-        <v>-8.800462319999999</v>
+        <v>-8.47486692</v>
       </c>
       <c r="Q78">
-        <v>-8.800462319999999</v>
+        <v>-8.47486692</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.2263668876031344</v>
+        <v>0.2303274130706855</v>
       </c>
       <c r="T78">
-        <v>2.200340841710111</v>
+        <v>2.199334740286011</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.01678640818348861</v>
+        <v>0.01738037472237089</v>
       </c>
       <c r="W78">
-        <v>0.1870072251635005</v>
+        <v>0.1805072251635005</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.07630185537949374</v>
+        <v>0.07900170328350409</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7776,13 +7776,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1981975441490126</v>
+        <v>0.1942080702612249</v>
       </c>
       <c r="C79">
-        <v>-41.33532250214075</v>
+        <v>-40.48418234918525</v>
       </c>
       <c r="D79">
-        <v>23.70867749785925</v>
+        <v>24.55981765081475</v>
       </c>
       <c r="E79">
         <v>65.065</v>
@@ -7809,37 +7809,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M79">
-        <v>12.375363</v>
+        <v>11.9524405</v>
       </c>
       <c r="N79">
-        <v>-11.443363</v>
+        <v>-11.0204405</v>
       </c>
       <c r="O79">
-        <v>-2.51753986</v>
+        <v>-2.42449691</v>
       </c>
       <c r="P79">
-        <v>-8.92582314</v>
+        <v>-8.595943589999999</v>
       </c>
       <c r="Q79">
-        <v>-8.92582314</v>
+        <v>-8.595943589999999</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.2355219696728359</v>
+        <v>0.2399373005954979</v>
       </c>
       <c r="T79">
-        <v>2.296007834827942</v>
+        <v>2.294957989863663</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.01656840288240434</v>
+        <v>0.01715465557013231</v>
       </c>
       <c r="W79">
-        <v>0.1870486897717667</v>
+        <v>0.1805486897717667</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.07531092219274704</v>
+        <v>0.07797570713696511</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7858,13 +7858,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1999415441490126</v>
+        <v>0.1959520702612249</v>
       </c>
       <c r="C80">
-        <v>-42.40486679901494</v>
+        <v>-41.55865916089742</v>
       </c>
       <c r="D80">
-        <v>23.48413320098506</v>
+        <v>24.33034083910258</v>
       </c>
       <c r="E80">
         <v>65.91</v>
@@ -7891,37 +7891,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M80">
-        <v>12.536082</v>
+        <v>12.107667</v>
       </c>
       <c r="N80">
-        <v>-11.604082</v>
+        <v>-11.175667</v>
       </c>
       <c r="O80">
-        <v>-2.55289804</v>
+        <v>-2.45864674</v>
       </c>
       <c r="P80">
-        <v>-9.051183959999999</v>
+        <v>-8.717020259999998</v>
       </c>
       <c r="Q80">
-        <v>-9.051183959999999</v>
+        <v>-8.717020259999998</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.2455093319306922</v>
+        <v>0.2504208142589296</v>
       </c>
       <c r="T80">
-        <v>2.400371827320122</v>
+        <v>2.399274262130193</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.01635598746083505</v>
+        <v>0.01693472408846395</v>
       </c>
       <c r="W80">
-        <v>0.1870890911849492</v>
+        <v>0.1805890911849492</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.07434539754925029</v>
+        <v>0.07697601858392711</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7940,13 +7940,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2016855441490126</v>
+        <v>0.1976960702612249</v>
       </c>
       <c r="C81">
-        <v>-43.47019769397517</v>
+        <v>-42.62888739609662</v>
       </c>
       <c r="D81">
-        <v>23.26380230602485</v>
+        <v>24.10511260390339</v>
       </c>
       <c r="E81">
         <v>66.75500000000001</v>
@@ -7973,37 +7973,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M81">
-        <v>12.696801</v>
+        <v>12.2628935</v>
       </c>
       <c r="N81">
-        <v>-11.764801</v>
+        <v>-11.3308935</v>
       </c>
       <c r="O81">
-        <v>-2.58825622</v>
+        <v>-2.49279657</v>
       </c>
       <c r="P81">
-        <v>-9.176544780000002</v>
+        <v>-8.838096930000003</v>
       </c>
       <c r="Q81">
-        <v>-9.176544780000002</v>
+        <v>-8.838096930000003</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.2564478715464394</v>
+        <v>0.2619027577950692</v>
       </c>
       <c r="T81">
-        <v>2.514675247668699</v>
+        <v>2.513525417469727</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.01614894964487511</v>
+        <v>0.01672036049240744</v>
       </c>
       <c r="W81">
-        <v>0.1871284697775448</v>
+        <v>0.1806284697775448</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.07340431656761415</v>
+        <v>0.07600163860185205</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -8022,13 +8022,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2034295441490126</v>
+        <v>0.1994400702612249</v>
       </c>
       <c r="C82">
-        <v>-44.53143267661459</v>
+        <v>-43.69498396097876</v>
       </c>
       <c r="D82">
-        <v>23.04756732338542</v>
+        <v>23.88401603902124</v>
       </c>
       <c r="E82">
         <v>67.60000000000001</v>
@@ -8055,37 +8055,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M82">
-        <v>12.85752</v>
+        <v>12.41812</v>
       </c>
       <c r="N82">
-        <v>-11.92552</v>
+        <v>-11.48612</v>
       </c>
       <c r="O82">
-        <v>-2.623614400000001</v>
+        <v>-2.5269464</v>
       </c>
       <c r="P82">
-        <v>-9.301905600000001</v>
+        <v>-8.959173600000002</v>
       </c>
       <c r="Q82">
-        <v>-9.301905600000001</v>
+        <v>-8.959173600000002</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.2684802651237613</v>
+        <v>0.2745328956848227</v>
       </c>
       <c r="T82">
-        <v>2.640409010052134</v>
+        <v>2.639201688343213</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.01594708777431417</v>
+        <v>0.01651135598625235</v>
       </c>
       <c r="W82">
-        <v>0.1871668639053254</v>
+        <v>0.1806668639053255</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.07248676261051901</v>
+        <v>0.07505161811932892</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8104,13 +8104,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2051735441490126</v>
+        <v>0.2011840702612249</v>
       </c>
       <c r="C83">
-        <v>-45.58868490853331</v>
+        <v>-44.75706151158183</v>
       </c>
       <c r="D83">
-        <v>22.8353150914667</v>
+        <v>23.66693848841818</v>
       </c>
       <c r="E83">
         <v>68.44500000000001</v>
@@ -8137,37 +8137,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M83">
-        <v>13.018239</v>
+        <v>12.5733465</v>
       </c>
       <c r="N83">
-        <v>-12.086239</v>
+        <v>-11.6413465</v>
       </c>
       <c r="O83">
-        <v>-2.65897258</v>
+        <v>-2.56109623</v>
       </c>
       <c r="P83">
-        <v>-9.42726642</v>
+        <v>-9.080250270000001</v>
       </c>
       <c r="Q83">
-        <v>-9.42726642</v>
+        <v>-9.080250270000001</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.2817792264460646</v>
+        <v>0.2884925217734975</v>
       </c>
       <c r="T83">
-        <v>2.779377905318036</v>
+        <v>2.778107040361277</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.01575021014747079</v>
+        <v>0.0163075120851875</v>
       </c>
       <c r="W83">
-        <v>0.1872043100299511</v>
+        <v>0.180704310029951</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.0715918643066854</v>
+        <v>0.07412505493267052</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8186,13 +8186,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2069175441490126</v>
+        <v>0.2029280702612249</v>
       </c>
       <c r="C84">
-        <v>-46.64206342080881</v>
+        <v>-45.81522864519069</v>
       </c>
       <c r="D84">
-        <v>22.6269365791912</v>
+        <v>23.45377135480932</v>
       </c>
       <c r="E84">
         <v>69.29000000000001</v>
@@ -8219,37 +8219,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M84">
-        <v>13.178958</v>
+        <v>12.728573</v>
       </c>
       <c r="N84">
-        <v>-12.246958</v>
+        <v>-11.796573</v>
       </c>
       <c r="O84">
-        <v>-2.69433076</v>
+        <v>-2.59524606</v>
       </c>
       <c r="P84">
-        <v>-9.552627240000001</v>
+        <v>-9.201326940000001</v>
       </c>
       <c r="Q84">
-        <v>-9.552627240000001</v>
+        <v>-9.201326940000001</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.2965558501375126</v>
+        <v>0.3040032174275807</v>
       </c>
       <c r="T84">
-        <v>2.933787788946816</v>
+        <v>2.932446320381348</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.01555813441396505</v>
+        <v>0.01610863998658766</v>
       </c>
       <c r="W84">
-        <v>0.1872408428344638</v>
+        <v>0.1807408428344638</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.07071879279075022</v>
+        <v>0.07322109084812578</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8268,13 +8268,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2086615441490126</v>
+        <v>0.2046720702612249</v>
       </c>
       <c r="C85">
-        <v>-47.69167330075263</v>
+        <v>-46.86959008149066</v>
       </c>
       <c r="D85">
-        <v>22.42232669924738</v>
+        <v>23.24440991850935</v>
       </c>
       <c r="E85">
         <v>70.13500000000001</v>
@@ -8301,37 +8301,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M85">
-        <v>13.339677</v>
+        <v>12.8837995</v>
       </c>
       <c r="N85">
-        <v>-12.407677</v>
+        <v>-11.9517995</v>
       </c>
       <c r="O85">
-        <v>-2.72968894</v>
+        <v>-2.62939589</v>
       </c>
       <c r="P85">
-        <v>-9.677988060000001</v>
+        <v>-9.32240361</v>
       </c>
       <c r="Q85">
-        <v>-9.677988060000001</v>
+        <v>-9.32240361</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.3130709001456017</v>
+        <v>0.3213387008056737</v>
       </c>
       <c r="T85">
-        <v>3.106363541237806</v>
+        <v>3.104943162756721</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.01537068701138716</v>
+        <v>0.01591455998674925</v>
       </c>
       <c r="W85">
-        <v>0.1872764953304342</v>
+        <v>0.1807764953304342</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.06986675914266893</v>
+        <v>0.07233890903067841</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2104055441490126</v>
+        <v>0.2064160702612249</v>
       </c>
       <c r="C86">
-        <v>-48.73761586862491</v>
+        <v>-47.92024683410428</v>
       </c>
       <c r="D86">
-        <v>22.22138413137509</v>
+        <v>23.03875316589573</v>
       </c>
       <c r="E86">
         <v>70.98</v>
@@ -8383,37 +8383,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M86">
-        <v>13.500396</v>
+        <v>13.039026</v>
       </c>
       <c r="N86">
-        <v>-12.568396</v>
+        <v>-12.107026</v>
       </c>
       <c r="O86">
-        <v>-2.76504712</v>
+        <v>-2.66354572</v>
       </c>
       <c r="P86">
-        <v>-9.803348880000001</v>
+        <v>-9.443480280000001</v>
       </c>
       <c r="Q86">
-        <v>-9.803348880000001</v>
+        <v>-9.443480280000001</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.3316503314047016</v>
+        <v>0.3408411196060282</v>
       </c>
       <c r="T86">
-        <v>3.300511262565167</v>
+        <v>3.299002110429015</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.01518770264220398</v>
+        <v>0.01572510093928795</v>
       </c>
       <c r="W86">
-        <v>0.1873112989574528</v>
+        <v>0.1808112989574528</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.06903501201001805</v>
+        <v>0.07147773154221793</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8432,13 +8432,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2121495441490126</v>
+        <v>0.2081600702612248</v>
       </c>
       <c r="C87">
-        <v>-49.77998884493142</v>
+        <v>-48.96729637310192</v>
       </c>
       <c r="D87">
-        <v>22.02401115506858</v>
+        <v>22.83670362689809</v>
       </c>
       <c r="E87">
         <v>71.825</v>
@@ -8465,37 +8465,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M87">
-        <v>13.661115</v>
+        <v>13.1942525</v>
       </c>
       <c r="N87">
-        <v>-12.729115</v>
+        <v>-12.2622525</v>
       </c>
       <c r="O87">
-        <v>-2.8004053</v>
+        <v>-2.69769555</v>
       </c>
       <c r="P87">
-        <v>-9.928709700000001</v>
+        <v>-9.56455695</v>
       </c>
       <c r="Q87">
-        <v>-9.928709700000001</v>
+        <v>-9.56455695</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.3527070201650151</v>
+        <v>0.3629438609130968</v>
       </c>
       <c r="T87">
-        <v>3.520545346736178</v>
+        <v>3.518935584457616</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.01500902378758981</v>
+        <v>0.01554009975176691</v>
       </c>
       <c r="W87">
-        <v>0.1873452836756004</v>
+        <v>0.1808452836756004</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.06822283539813556</v>
+        <v>0.07063681705348601</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2138935441490126</v>
+        <v>0.2099040702612249</v>
       </c>
       <c r="C88">
-        <v>-50.81888650888329</v>
+        <v>-50.0108327790355</v>
       </c>
       <c r="D88">
-        <v>21.83011349111671</v>
+        <v>22.6381672209645</v>
       </c>
       <c r="E88">
         <v>72.67</v>
@@ -8547,37 +8547,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M88">
-        <v>13.821834</v>
+        <v>13.349479</v>
       </c>
       <c r="N88">
-        <v>-12.889834</v>
+        <v>-12.417479</v>
       </c>
       <c r="O88">
-        <v>-2.83576348</v>
+        <v>-2.73184538</v>
       </c>
       <c r="P88">
-        <v>-10.05407052</v>
+        <v>-9.685633620000001</v>
       </c>
       <c r="Q88">
-        <v>-10.05407052</v>
+        <v>-9.685633620000001</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.376771807319659</v>
+        <v>0.3882041366926037</v>
       </c>
       <c r="T88">
-        <v>3.772012871503048</v>
+        <v>3.770288126204589</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.01483450025517598</v>
+        <v>0.01535940091744404</v>
       </c>
       <c r="W88">
-        <v>0.1873784780514655</v>
+        <v>0.1808784780514655</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.06742954661443623</v>
+        <v>0.06981545871565475</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8596,13 +8596,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2156375441490126</v>
+        <v>0.2116480702612249</v>
       </c>
       <c r="C89">
-        <v>-51.85439984855944</v>
+        <v>-51.05094688900647</v>
       </c>
       <c r="D89">
-        <v>21.63960015144056</v>
+        <v>22.44305311099353</v>
       </c>
       <c r="E89">
         <v>73.515</v>
@@ -8629,37 +8629,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M89">
-        <v>13.982553</v>
+        <v>13.5047055</v>
       </c>
       <c r="N89">
-        <v>-13.050553</v>
+        <v>-12.5727055</v>
       </c>
       <c r="O89">
-        <v>-2.87112166</v>
+        <v>-2.76599521</v>
       </c>
       <c r="P89">
-        <v>-10.17943134</v>
+        <v>-9.80671029</v>
       </c>
       <c r="Q89">
-        <v>-10.17943134</v>
+        <v>-9.80671029</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.4045388694211712</v>
+        <v>0.4173506087458809</v>
       </c>
       <c r="T89">
-        <v>4.062167707772513</v>
+        <v>4.060310289758789</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.01466398875799005</v>
+        <v>0.0151828560793125</v>
       </c>
       <c r="W89">
-        <v>0.1874109093382303</v>
+        <v>0.1809109093382303</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.06665449435450022</v>
+        <v>0.06901298217869323</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8678,13 +8678,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2173815441490126</v>
+        <v>0.2133920702612249</v>
       </c>
       <c r="C90">
-        <v>-52.88661670327414</v>
+        <v>-52.08772643524496</v>
       </c>
       <c r="D90">
-        <v>21.45238329672586</v>
+        <v>22.25127356475504</v>
       </c>
       <c r="E90">
         <v>74.36</v>
@@ -8711,37 +8711,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M90">
-        <v>14.143272</v>
+        <v>13.659932</v>
       </c>
       <c r="N90">
-        <v>-13.211272</v>
+        <v>-12.727932</v>
       </c>
       <c r="O90">
-        <v>-2.90647984</v>
+        <v>-2.80014504</v>
       </c>
       <c r="P90">
-        <v>-10.30479216</v>
+        <v>-9.927786959999999</v>
       </c>
       <c r="Q90">
-        <v>-10.30479216</v>
+        <v>-9.927786959999999</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.4369337752062688</v>
+        <v>0.451354826141371</v>
       </c>
       <c r="T90">
-        <v>4.400681683420222</v>
+        <v>4.398669480572021</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.0144973525221038</v>
+        <v>0.01501032362386577</v>
       </c>
       <c r="W90">
-        <v>0.1874426035502958</v>
+        <v>0.1809426035502958</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.06589705691865366</v>
+        <v>0.06822874374484444</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8760,13 +8760,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2191255441490126</v>
+        <v>0.2151360702612249</v>
       </c>
       <c r="C91">
-        <v>-53.91562189861778</v>
+        <v>-53.12125617664395</v>
       </c>
       <c r="D91">
-        <v>21.26837810138222</v>
+        <v>22.06274382335605</v>
       </c>
       <c r="E91">
         <v>75.205</v>
@@ -8793,37 +8793,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M91">
-        <v>14.303991</v>
+        <v>13.8151585</v>
       </c>
       <c r="N91">
-        <v>-13.371991</v>
+        <v>-12.8831585</v>
       </c>
       <c r="O91">
-        <v>-2.94183802</v>
+        <v>-2.83429487</v>
       </c>
       <c r="P91">
-        <v>-10.43015298</v>
+        <v>-10.04886363</v>
       </c>
       <c r="Q91">
-        <v>-10.43015298</v>
+        <v>-10.04886363</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.4752186638613843</v>
+        <v>0.4915416285178593</v>
       </c>
       <c r="T91">
-        <v>4.800743654640244</v>
+        <v>4.798548524260386</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.01433446092073184</v>
+        <v>0.0148416683022493</v>
       </c>
       <c r="W91">
-        <v>0.1874735855328768</v>
+        <v>0.1809735855328768</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.06515664054878112</v>
+        <v>0.06746212864658774</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8842,13 +8842,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2208695441490126</v>
+        <v>0.2168800702612249</v>
       </c>
       <c r="C92">
-        <v>-54.94149737460683</v>
+        <v>-54.15161802366283</v>
       </c>
       <c r="D92">
-        <v>21.08750262539317</v>
+        <v>21.87738197633716</v>
       </c>
       <c r="E92">
         <v>76.05</v>
@@ -8875,37 +8875,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M92">
-        <v>14.46471</v>
+        <v>13.970385</v>
       </c>
       <c r="N92">
-        <v>-13.53271</v>
+        <v>-13.038385</v>
       </c>
       <c r="O92">
-        <v>-2.9771962</v>
+        <v>-2.8684447</v>
       </c>
       <c r="P92">
-        <v>-10.5555138</v>
+        <v>-10.1699403</v>
       </c>
       <c r="Q92">
-        <v>-10.5555138</v>
+        <v>-10.1699403</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.5211605302475227</v>
+        <v>0.5397657913696453</v>
       </c>
       <c r="T92">
-        <v>5.280818020104268</v>
+        <v>5.278403376686426</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.01417518913272371</v>
+        <v>0.01467676087666875</v>
       </c>
       <c r="W92">
-        <v>0.1875038790269559</v>
+        <v>0.1810038790269559</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.06443267787601692</v>
+        <v>0.06671254943940341</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2226135441490126</v>
+        <v>0.2186240702612249</v>
       </c>
       <c r="C93">
-        <v>-55.96432230735005</v>
+        <v>-55.17889115698725</v>
       </c>
       <c r="D93">
-        <v>20.90967769264995</v>
+        <v>21.69510884301274</v>
       </c>
       <c r="E93">
         <v>76.895</v>
@@ -8957,37 +8957,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M93">
-        <v>14.625429</v>
+        <v>14.1256115</v>
       </c>
       <c r="N93">
-        <v>-13.693429</v>
+        <v>-13.1936115</v>
       </c>
       <c r="O93">
-        <v>-3.01255438</v>
+        <v>-2.90259453</v>
       </c>
       <c r="P93">
-        <v>-10.68087462</v>
+        <v>-10.29101697</v>
       </c>
       <c r="Q93">
-        <v>-10.68087462</v>
+        <v>-10.29101697</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.5773117002750253</v>
+        <v>0.5987064348551615</v>
       </c>
       <c r="T93">
-        <v>5.867575577893632</v>
+        <v>5.864892640762696</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.0140194178235729</v>
+        <v>0.01451547779011195</v>
       </c>
       <c r="W93">
-        <v>0.1875335067299564</v>
+        <v>0.1810335067299564</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.06372462647078592</v>
+        <v>0.06597944450050885</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2243575441490127</v>
+        <v>0.2203680702612249</v>
       </c>
       <c r="C94">
-        <v>-56.98417322461023</v>
+        <v>-56.20315214030599</v>
       </c>
       <c r="D94">
-        <v>20.73482677538978</v>
+        <v>21.51584785969402</v>
       </c>
       <c r="E94">
         <v>77.74000000000001</v>
@@ -9039,37 +9039,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M94">
-        <v>14.786148</v>
+        <v>14.280838</v>
       </c>
       <c r="N94">
-        <v>-13.854148</v>
+        <v>-13.348838</v>
       </c>
       <c r="O94">
-        <v>-3.04791256</v>
+        <v>-2.93674436</v>
       </c>
       <c r="P94">
-        <v>-10.80623544</v>
+        <v>-10.41209364</v>
       </c>
       <c r="Q94">
-        <v>-10.80623544</v>
+        <v>-10.41209364</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.6475006628094038</v>
+        <v>0.6723822392120569</v>
       </c>
       <c r="T94">
-        <v>6.601022525130339</v>
+        <v>6.598004220858035</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.01386703284722972</v>
+        <v>0.01435770085761074</v>
       </c>
       <c r="W94">
-        <v>0.1875624903524569</v>
+        <v>0.1810624903524569</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.0630319674874078</v>
+        <v>0.06526227662550332</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -9088,13 +9088,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2261015441490126</v>
+        <v>0.2221120702612249</v>
       </c>
       <c r="C95">
-        <v>-58.00112411561584</v>
+        <v>-57.22447502754282</v>
       </c>
       <c r="D95">
-        <v>20.56287588438417</v>
+        <v>21.33952497245719</v>
       </c>
       <c r="E95">
         <v>78.58500000000001</v>
@@ -9121,37 +9121,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M95">
-        <v>14.946867</v>
+        <v>14.4360645</v>
       </c>
       <c r="N95">
-        <v>-14.014867</v>
+        <v>-13.5040645</v>
       </c>
       <c r="O95">
-        <v>-3.083270740000001</v>
+        <v>-2.970894190000001</v>
       </c>
       <c r="P95">
-        <v>-10.93159626</v>
+        <v>-10.53317031</v>
       </c>
       <c r="Q95">
-        <v>-10.93159626</v>
+        <v>-10.53317031</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.7377436146393186</v>
+        <v>0.7671082733852079</v>
       </c>
       <c r="T95">
-        <v>7.544025743006102</v>
+        <v>7.540576252409184</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.01371792496715198</v>
+        <v>0.01420331697742137</v>
       </c>
       <c r="W95">
-        <v>0.1875908506712477</v>
+        <v>0.1810908506712477</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.06235420439614536</v>
+        <v>0.06456053171555176</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2278455441490126</v>
+        <v>0.2238560702612249</v>
       </c>
       <c r="C96">
-        <v>-59.01524653545393</v>
+        <v>-58.24293146485851</v>
       </c>
       <c r="D96">
-        <v>20.39375346454607</v>
+        <v>21.1660685351415</v>
       </c>
       <c r="E96">
         <v>79.43000000000001</v>
@@ -9203,37 +9203,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M96">
-        <v>15.107586</v>
+        <v>14.591291</v>
       </c>
       <c r="N96">
-        <v>-14.175586</v>
+        <v>-13.659291</v>
       </c>
       <c r="O96">
-        <v>-3.11862892</v>
+        <v>-3.00504402</v>
       </c>
       <c r="P96">
-        <v>-11.05695708</v>
+        <v>-10.65424698</v>
       </c>
       <c r="Q96">
-        <v>-11.05695708</v>
+        <v>-10.65424698</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>0.8580675504125386</v>
+        <v>0.8934096522827428</v>
       </c>
       <c r="T96">
-        <v>8.801363366840453</v>
+        <v>8.79733896114405</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.013571989595161</v>
+        <v>0.01405221786064029</v>
       </c>
       <c r="W96">
-        <v>0.1876186075790004</v>
+        <v>0.1811186075790004</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.06169086179618644</v>
+        <v>0.06387371754836502</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9252,13 +9252,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2295895441490126</v>
+        <v>0.2256000702612249</v>
       </c>
       <c r="C97">
-        <v>-60.02660970435323</v>
+        <v>-59.25859078771819</v>
       </c>
       <c r="D97">
-        <v>20.22739029564677</v>
+        <v>20.99540921228181</v>
       </c>
       <c r="E97">
         <v>80.27500000000001</v>
@@ -9285,37 +9285,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M97">
-        <v>15.268305</v>
+        <v>14.7465175</v>
       </c>
       <c r="N97">
-        <v>-14.336305</v>
+        <v>-13.8145175</v>
       </c>
       <c r="O97">
-        <v>-3.1539871</v>
+        <v>-3.03919385</v>
       </c>
       <c r="P97">
-        <v>-11.1823179</v>
+        <v>-10.77532365</v>
       </c>
       <c r="Q97">
-        <v>-11.1823179</v>
+        <v>-10.77532365</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.026521060495047</v>
+        <v>1.070231582739292</v>
       </c>
       <c r="T97">
-        <v>10.56163604020855</v>
+        <v>10.55680675337286</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.01342912654679088</v>
+        <v>0.01390429977789671</v>
       </c>
       <c r="W97">
-        <v>0.1876457801308004</v>
+        <v>0.1811457801308004</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.06104148430359491</v>
+        <v>0.06320136262680331</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9334,13 +9334,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2313335441490126</v>
+        <v>0.2273440702612249</v>
       </c>
       <c r="C98">
-        <v>-61.0352806021473</v>
+        <v>-60.27152011330064</v>
       </c>
       <c r="D98">
-        <v>20.06371939785269</v>
+        <v>20.82747988669935</v>
       </c>
       <c r="E98">
         <v>81.11999999999999</v>
@@ -9367,37 +9367,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M98">
-        <v>15.429024</v>
+        <v>14.901744</v>
       </c>
       <c r="N98">
-        <v>-14.497024</v>
+        <v>-13.969744</v>
       </c>
       <c r="O98">
-        <v>-3.18934528</v>
+        <v>-3.07334368</v>
       </c>
       <c r="P98">
-        <v>-11.30767872</v>
+        <v>-10.89640032</v>
       </c>
       <c r="Q98">
-        <v>-11.30767872</v>
+        <v>-10.89640032</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.279201325618806</v>
+        <v>1.335464478424112</v>
       </c>
       <c r="T98">
-        <v>13.20204505026066</v>
+        <v>13.19600844171605</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.01328923981192848</v>
+        <v>0.01375946332187696</v>
       </c>
       <c r="W98">
-        <v>0.1876723865877712</v>
+        <v>0.1811723865877712</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.06040563550876588</v>
+        <v>0.06254301509944071</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2330775441490126</v>
+        <v>0.2290880702612249</v>
       </c>
       <c r="C99">
-        <v>-62.04132405818829</v>
+        <v>-61.28178442850771</v>
       </c>
       <c r="D99">
-        <v>19.9026759418117</v>
+        <v>20.66221557149229</v>
       </c>
       <c r="E99">
         <v>81.965</v>
@@ -9449,37 +9449,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M99">
-        <v>15.589743</v>
+        <v>15.0569705</v>
       </c>
       <c r="N99">
-        <v>-14.657743</v>
+        <v>-14.1249705</v>
       </c>
       <c r="O99">
-        <v>-3.22470346</v>
+        <v>-3.10749351</v>
       </c>
       <c r="P99">
-        <v>-11.43303954</v>
+        <v>-11.01747699</v>
       </c>
       <c r="Q99">
-        <v>-11.43303954</v>
+        <v>-11.01747699</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>1.700335100825074</v>
+        <v>1.777519304565483</v>
       </c>
       <c r="T99">
-        <v>17.60272673368088</v>
+        <v>17.59467792228807</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.01315223733964056</v>
+        <v>0.01361761318453802</v>
       </c>
       <c r="W99">
-        <v>0.1876984444580004</v>
+        <v>0.1811984444580004</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.05978289699836614</v>
+        <v>0.06189824174790015</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9498,13 +9498,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2348215441490126</v>
+        <v>0.2308320702612249</v>
       </c>
       <c r="C100">
-        <v>-63.04480283696499</v>
+        <v>-62.2894466738169</v>
       </c>
       <c r="D100">
-        <v>19.74419716303501</v>
+        <v>20.49955332618311</v>
       </c>
       <c r="E100">
         <v>82.81</v>
@@ -9531,37 +9531,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M100">
-        <v>15.750462</v>
+        <v>15.212197</v>
       </c>
       <c r="N100">
-        <v>-14.818462</v>
+        <v>-14.280197</v>
       </c>
       <c r="O100">
-        <v>-3.26006164</v>
+        <v>-3.14164334</v>
       </c>
       <c r="P100">
-        <v>-11.55840036</v>
+        <v>-11.13855366</v>
       </c>
       <c r="Q100">
-        <v>-11.55840036</v>
+        <v>-11.13855366</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>2.542602651237611</v>
+        <v>2.661628956848224</v>
       </c>
       <c r="T100">
-        <v>26.40409010052132</v>
+        <v>26.3920168834321</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.01301803083617484</v>
+        <v>0.0134786579479611</v>
       </c>
       <c r="W100">
-        <v>0.1877239705349596</v>
+        <v>0.1812239705349596</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.05917286743715833</v>
+        <v>0.06126662703618679</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9580,13 +9580,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2365655441490126</v>
+        <v>0.2325760702612249</v>
       </c>
       <c r="C101">
-        <v>-64.04577771966267</v>
+        <v>-63.29456782320399</v>
       </c>
       <c r="D101">
-        <v>19.58822228033733</v>
+        <v>20.33943217679601</v>
       </c>
       <c r="E101">
         <v>83.655</v>
@@ -9613,37 +9613,37 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="M101">
-        <v>15.911181</v>
+        <v>15.3674235</v>
       </c>
       <c r="N101">
-        <v>-14.979181</v>
+        <v>-14.4354235</v>
       </c>
       <c r="O101">
-        <v>-3.29541982</v>
+        <v>-3.17579317</v>
       </c>
       <c r="P101">
-        <v>-11.68376118</v>
+        <v>-11.25963033</v>
       </c>
       <c r="Q101">
-        <v>-11.68376118</v>
+        <v>-11.25963033</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>5.069405302475222</v>
+        <v>5.313957913696448</v>
       </c>
       <c r="T101">
-        <v>52.80818020104263</v>
+        <v>52.78403376686421</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.01288653557520337</v>
+        <v>0.01334250988788068</v>
       </c>
       <c r="W101">
-        <v>0.1877489809335963</v>
+        <v>0.1812489809335963</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.05857516170546995</v>
+        <v>0.06064777221763951</v>
       </c>
       <c r="Z101">
         <v>0</v>
